--- a/Formulario - Base de datos.xlsx
+++ b/Formulario - Base de datos.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="24-05-2022" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="486">
   <si>
     <t>Gobernacion maritima</t>
   </si>
@@ -1037,6 +1038,444 @@
   </si>
   <si>
     <t>aquí 28-04</t>
+  </si>
+  <si>
+    <t>directemar en duro</t>
+  </si>
+  <si>
+    <t>vista VI_UNIDADPOLICIAL</t>
+  </si>
+  <si>
+    <t>parte ampliado</t>
+  </si>
+  <si>
+    <t>TPSituacionDenuncia</t>
+  </si>
+  <si>
+    <t>DenunciaReferencia</t>
+  </si>
+  <si>
+    <t>IDDenunciaOrigen</t>
+  </si>
+  <si>
+    <t>GLTPConduccion</t>
+  </si>
+  <si>
+    <t>FCTerminoDenuncia</t>
+  </si>
+  <si>
+    <t>FCInicioDenuncia</t>
+  </si>
+  <si>
+    <t>CDTPLugarProcedimiento</t>
+  </si>
+  <si>
+    <t>GLTPLugarProcedimiento</t>
+  </si>
+  <si>
+    <t>TPConduccion</t>
+  </si>
+  <si>
+    <t>CDTPConduccion(DetalleImputado)</t>
+  </si>
+  <si>
+    <t>CDTPSituacion(TPSituacionDenuncia)</t>
+  </si>
+  <si>
+    <t>CDTPZonaDelito</t>
+  </si>
+  <si>
+    <t>GLTPSituacionDenuncia</t>
+  </si>
+  <si>
+    <t>CDTPZonaDelito(DetalleDenuncia)</t>
+  </si>
+  <si>
+    <t>NMTPZonaDelito</t>
+  </si>
+  <si>
+    <t>TPCausaDetencion</t>
+  </si>
+  <si>
+    <t>CDTPCausaDetencion</t>
+  </si>
+  <si>
+    <t>CDTPCausaDetencion(DetalleDenuncia)</t>
+  </si>
+  <si>
+    <t>GLLugarOcurrencia</t>
+  </si>
+  <si>
+    <t>CDTPLugarOcurrencia(DetalleDenuncia)</t>
+  </si>
+  <si>
+    <t>CDTPLugarProcedimiento(DetalleDenuncia)</t>
+  </si>
+  <si>
+    <t>NMCalle</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>GLNumero</t>
+  </si>
+  <si>
+    <t>GLDepartamento</t>
+  </si>
+  <si>
+    <t>GLBlock</t>
+  </si>
+  <si>
+    <t>NMVillaPoblacion</t>
+  </si>
+  <si>
+    <t>GLSector</t>
+  </si>
+  <si>
+    <t>VI_TPComuna</t>
+  </si>
+  <si>
+    <t>VI_TPRegion</t>
+  </si>
+  <si>
+    <t>GLReferencia</t>
+  </si>
+  <si>
+    <t>NRLatitud</t>
+  </si>
+  <si>
+    <t>NRlongitud</t>
+  </si>
+  <si>
+    <t>Vi_Persona</t>
+  </si>
+  <si>
+    <t>NMSocial</t>
+  </si>
+  <si>
+    <t>PersonaParte</t>
+  </si>
+  <si>
+    <t>Vi_Persona (Tipo Documento Identidad)</t>
+  </si>
+  <si>
+    <t>Vi_Persona (GLNRDocIdentidad)</t>
+  </si>
+  <si>
+    <t>TPIdioma</t>
+  </si>
+  <si>
+    <t>GLTPIdioma</t>
+  </si>
+  <si>
+    <t>PersonaParte (CDTPIdioma)</t>
+  </si>
+  <si>
+    <t>GLTPGradoEscolaridad</t>
+  </si>
+  <si>
+    <t>PersonaParte (CDTPGradoEscolaridad)</t>
+  </si>
+  <si>
+    <t>GLTPEstadoMigratorio</t>
+  </si>
+  <si>
+    <t>PersonaParte (CDTPEstadoMigratorio)</t>
+  </si>
+  <si>
+    <t>GLTPIdentidadGenero</t>
+  </si>
+  <si>
+    <t>TPIdentidadGenero</t>
+  </si>
+  <si>
+    <t>PersonaParte (CDTPIdentidadGenero)</t>
+  </si>
+  <si>
+    <t>GLAlias</t>
+  </si>
+  <si>
+    <t>GLTPPuebloOriginario</t>
+  </si>
+  <si>
+    <t>TPPuebloOriginario</t>
+  </si>
+  <si>
+    <t>PersonaParte (CDTPPuebloOriginario)</t>
+  </si>
+  <si>
+    <t>Otro Lugar</t>
+  </si>
+  <si>
+    <t>GLTPContactoDenuncia</t>
+  </si>
+  <si>
+    <t>TPContactoDenuncia</t>
+  </si>
+  <si>
+    <t>Direccion (CDTPContactoDenuncia)</t>
+  </si>
+  <si>
+    <t>GLTPRedSocial</t>
+  </si>
+  <si>
+    <t>ContactoRedSocial (CDTPRedSocial)</t>
+  </si>
+  <si>
+    <t>GLIdentificador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactoRedSocial </t>
+  </si>
+  <si>
+    <t>DenunciaPorMenorEdad</t>
+  </si>
+  <si>
+    <t>Para casos de NNA, indicar</t>
+  </si>
+  <si>
+    <t>GLTPNNA</t>
+  </si>
+  <si>
+    <t>TPNNA</t>
+  </si>
+  <si>
+    <t>DenunciaPorMenorEdad (CDTPNNA)</t>
+  </si>
+  <si>
+    <t>GLTPRelacion</t>
+  </si>
+  <si>
+    <t>TPRelacion</t>
+  </si>
+  <si>
+    <t>DenunciaPorMenorEdad (CDTPRelacion)</t>
+  </si>
+  <si>
+    <t>LGAdultoProtector</t>
+  </si>
+  <si>
+    <t>IDAdultoProtector</t>
+  </si>
+  <si>
+    <t>GLTPDelito</t>
+  </si>
+  <si>
+    <t>TPGradoEjecucion</t>
+  </si>
+  <si>
+    <t>Delito (CDTPGradoEjecucion)</t>
+  </si>
+  <si>
+    <t>GLModusOperandi</t>
+  </si>
+  <si>
+    <t>Delito</t>
+  </si>
+  <si>
+    <t>LGLesionados</t>
+  </si>
+  <si>
+    <t>LGFallecidos</t>
+  </si>
+  <si>
+    <t>MedioTransporte (CDTPMedioTransporte)</t>
+  </si>
+  <si>
+    <t>GLPatente</t>
+  </si>
+  <si>
+    <t>MedioTransporte</t>
+  </si>
+  <si>
+    <t>GLMarca</t>
+  </si>
+  <si>
+    <t>GLModelo</t>
+  </si>
+  <si>
+    <t>GLColor</t>
+  </si>
+  <si>
+    <t>GLTPMedioTransporte - GLTPUsoMedio</t>
+  </si>
+  <si>
+    <t>TPMedioTransporte - TPUsoMedio</t>
+  </si>
+  <si>
+    <t>GLNroEncargoRobo</t>
+  </si>
+  <si>
+    <t>LGEncargoRobo</t>
+  </si>
+  <si>
+    <t>LGPortaPatente</t>
+  </si>
+  <si>
+    <t>GLAutopista</t>
+  </si>
+  <si>
+    <t>GLObservacion</t>
+  </si>
+  <si>
+    <t>TPEstadoPersona</t>
+  </si>
+  <si>
+    <t>GLTPEstadoPersona</t>
+  </si>
+  <si>
+    <t>EstadoInvolucrado (CDTPEstadoPersona)</t>
+  </si>
+  <si>
+    <t>GLDetalleLesiones</t>
+  </si>
+  <si>
+    <t>Involucrado</t>
+  </si>
+  <si>
+    <t>LGParticular</t>
+  </si>
+  <si>
+    <t>ContactoRedSocial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InvolucradoDenunciado (CDTPRelacion) </t>
+  </si>
+  <si>
+    <t>GLTPResidencia</t>
+  </si>
+  <si>
+    <t>TPResidencia</t>
+  </si>
+  <si>
+    <t>Direccion (CDTPResidencia)</t>
+  </si>
+  <si>
+    <t>LGConoceDenunciado</t>
+  </si>
+  <si>
+    <t>InvolucradoDenunciado</t>
+  </si>
+  <si>
+    <t>**********</t>
+  </si>
+  <si>
+    <t>ciudad nacimiento</t>
+  </si>
+  <si>
+    <t>Vi_Persona (FCNacimiento)</t>
+  </si>
+  <si>
+    <t>Vi_Persona (GLLugarNacimiento)</t>
+  </si>
+  <si>
+    <t>Vi_Persona (CDNacionalidad)</t>
+  </si>
+  <si>
+    <t>VI_TPPersona(GLTPPersona)</t>
+  </si>
+  <si>
+    <t>LGValidaIdentidad</t>
+  </si>
+  <si>
+    <t>LGIdentidadPositiva</t>
+  </si>
+  <si>
+    <t>DetalleImputado</t>
+  </si>
+  <si>
+    <t>GLTPRolImputado</t>
+  </si>
+  <si>
+    <t>TPRolImputado</t>
+  </si>
+  <si>
+    <t>RolImputado (CDTPRolImputado)</t>
+  </si>
+  <si>
+    <t>GLTPPerfil</t>
+  </si>
+  <si>
+    <t>TPPerfil</t>
+  </si>
+  <si>
+    <t>PerfilImputado (CDTPPerfil)</t>
+  </si>
+  <si>
+    <t>GLTPCausaDetencion</t>
+  </si>
+  <si>
+    <t>CausaDetencion (CDTPCausaDetencion)</t>
+  </si>
+  <si>
+    <t>GLLugarDetencion</t>
+  </si>
+  <si>
+    <t>FCDetencion</t>
+  </si>
+  <si>
+    <t>denunciado se encuentra detenido</t>
+  </si>
+  <si>
+    <t>GLNotificaAdultoResponsable</t>
+  </si>
+  <si>
+    <t>GLTPMedioNotificacion</t>
+  </si>
+  <si>
+    <t>TPMedioNotificacion</t>
+  </si>
+  <si>
+    <t>Detencion (CDTPMedioNotificacion)</t>
+  </si>
+  <si>
+    <t>CausaDetencion (GLDetalle)</t>
+  </si>
+  <si>
+    <t>posee algun registro o prueba de los hechos</t>
+  </si>
+  <si>
+    <t>GLOtrosTestigos</t>
+  </si>
+  <si>
+    <t>GLPruebaHechos</t>
+  </si>
+  <si>
+    <t>Vi_Funcionarios</t>
+  </si>
+  <si>
+    <t>Vi_Funcionarios (Rut)</t>
+  </si>
+  <si>
+    <t>Vi_Grados (GLGrado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiscalia local de </t>
+  </si>
+  <si>
+    <t>PersonaFiscal</t>
+  </si>
+  <si>
+    <t>TPFiscalia</t>
+  </si>
+  <si>
+    <t>InstruccionFiscal</t>
+  </si>
+  <si>
+    <t>NMFiscalia</t>
+  </si>
+  <si>
+    <t>GLTPRolFuncionario</t>
+  </si>
+  <si>
+    <t>TPRolFuncionario</t>
+  </si>
+  <si>
+    <t>CDGrado</t>
+  </si>
+  <si>
+    <t>Funcionarios</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:E251"/>
     </sheetView>
   </sheetViews>
@@ -5603,8 +6042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView topLeftCell="A221" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A239" sqref="A239:E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9119,4 +9558,3249 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G237"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D235" sqref="D235"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>368</v>
+      </c>
+      <c r="D21" t="s">
+        <v>365</v>
+      </c>
+      <c r="E21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>370</v>
+      </c>
+      <c r="D23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C28" t="s">
+        <v>375</v>
+      </c>
+      <c r="D28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>274</v>
+      </c>
+      <c r="B29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C29" t="s">
+        <v>374</v>
+      </c>
+      <c r="D29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>377</v>
+      </c>
+      <c r="D32" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>447</v>
+      </c>
+      <c r="E36" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>382</v>
+      </c>
+      <c r="D37" t="s">
+        <v>381</v>
+      </c>
+      <c r="E37" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>386</v>
+      </c>
+      <c r="D40" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>388</v>
+      </c>
+      <c r="D42" t="s">
+        <v>389</v>
+      </c>
+      <c r="E42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>391</v>
+      </c>
+      <c r="D43" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>392</v>
+      </c>
+      <c r="D44" t="s">
+        <v>393</v>
+      </c>
+      <c r="E44" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>396</v>
+      </c>
+      <c r="D47" t="s">
+        <v>397</v>
+      </c>
+      <c r="E47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>364</v>
+      </c>
+      <c r="D48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>366</v>
+      </c>
+      <c r="D49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>367</v>
+      </c>
+      <c r="D50" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>368</v>
+      </c>
+      <c r="D51" t="s">
+        <v>365</v>
+      </c>
+      <c r="E51" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>369</v>
+      </c>
+      <c r="D52" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" t="s">
+        <v>370</v>
+      </c>
+      <c r="D53" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>373</v>
+      </c>
+      <c r="D57" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>307</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>236</v>
+      </c>
+      <c r="D61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>399</v>
+      </c>
+      <c r="D63" t="s">
+        <v>399</v>
+      </c>
+      <c r="E63" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" t="s">
+        <v>323</v>
+      </c>
+      <c r="C64" t="s">
+        <v>401</v>
+      </c>
+      <c r="D64" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
+        <v>404</v>
+      </c>
+      <c r="C65" t="s">
+        <v>405</v>
+      </c>
+      <c r="D65" t="s">
+        <v>406</v>
+      </c>
+      <c r="E65" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" t="s">
+        <v>408</v>
+      </c>
+      <c r="D66" t="s">
+        <v>409</v>
+      </c>
+      <c r="E66" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" t="s">
+        <v>411</v>
+      </c>
+      <c r="D67" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="s">
+        <v>412</v>
+      </c>
+      <c r="D68" t="s">
+        <v>403</v>
+      </c>
+      <c r="E68" t="s">
+        <v>328</v>
+      </c>
+      <c r="F68" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" t="s">
+        <v>326</v>
+      </c>
+      <c r="D69" t="s">
+        <v>403</v>
+      </c>
+      <c r="E69" t="s">
+        <v>328</v>
+      </c>
+      <c r="F69" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" t="s">
+        <v>325</v>
+      </c>
+      <c r="D70" t="s">
+        <v>403</v>
+      </c>
+      <c r="E70" t="s">
+        <v>328</v>
+      </c>
+      <c r="F70" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" t="s">
+        <v>413</v>
+      </c>
+      <c r="D72" t="s">
+        <v>414</v>
+      </c>
+      <c r="E72" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" t="s">
+        <v>416</v>
+      </c>
+      <c r="D73" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" t="s">
+        <v>418</v>
+      </c>
+      <c r="D74" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" t="s">
+        <v>419</v>
+      </c>
+      <c r="D75" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>329</v>
+      </c>
+      <c r="B77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" t="s">
+        <v>426</v>
+      </c>
+      <c r="D77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E77" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>329</v>
+      </c>
+      <c r="B78" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" t="s">
+        <v>330</v>
+      </c>
+      <c r="F78" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>329</v>
+      </c>
+      <c r="B79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" t="s">
+        <v>331</v>
+      </c>
+      <c r="F79" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" t="s">
+        <v>421</v>
+      </c>
+      <c r="D80" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>329</v>
+      </c>
+      <c r="B81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" t="s">
+        <v>423</v>
+      </c>
+      <c r="D81" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>329</v>
+      </c>
+      <c r="B82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" t="s">
+        <v>424</v>
+      </c>
+      <c r="D82" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>329</v>
+      </c>
+      <c r="B83" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" t="s">
+        <v>425</v>
+      </c>
+      <c r="D83" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>329</v>
+      </c>
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" t="s">
+        <v>426</v>
+      </c>
+      <c r="D84" t="s">
+        <v>427</v>
+      </c>
+      <c r="E84" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>329</v>
+      </c>
+      <c r="B85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" t="s">
+        <v>429</v>
+      </c>
+      <c r="D85" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>329</v>
+      </c>
+      <c r="B86" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" t="s">
+        <v>428</v>
+      </c>
+      <c r="D86" t="s">
+        <v>422</v>
+      </c>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>329</v>
+      </c>
+      <c r="B87" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" t="s">
+        <v>430</v>
+      </c>
+      <c r="D87" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>329</v>
+      </c>
+      <c r="B88" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" t="s">
+        <v>431</v>
+      </c>
+      <c r="D88" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>329</v>
+      </c>
+      <c r="B89" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" t="s">
+        <v>432</v>
+      </c>
+      <c r="D89" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
+        <v>125</v>
+      </c>
+      <c r="E91" t="s">
+        <v>451</v>
+      </c>
+      <c r="F91" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" t="s">
+        <v>376</v>
+      </c>
+      <c r="F92" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" t="s">
+        <v>377</v>
+      </c>
+      <c r="D93" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" t="s">
+        <v>53</v>
+      </c>
+      <c r="E94" t="s">
+        <v>379</v>
+      </c>
+      <c r="F94" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" t="s">
+        <v>127</v>
+      </c>
+      <c r="E95" t="s">
+        <v>380</v>
+      </c>
+      <c r="F95" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" t="s">
+        <v>129</v>
+      </c>
+      <c r="E96" t="s">
+        <v>448</v>
+      </c>
+      <c r="F96" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97" t="s">
+        <v>449</v>
+      </c>
+      <c r="F97" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" t="s">
+        <v>382</v>
+      </c>
+      <c r="D98" t="s">
+        <v>381</v>
+      </c>
+      <c r="E98" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" t="s">
+        <v>57</v>
+      </c>
+      <c r="E99" t="s">
+        <v>450</v>
+      </c>
+      <c r="F99" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" t="s">
+        <v>58</v>
+      </c>
+      <c r="C100" t="s">
+        <v>384</v>
+      </c>
+      <c r="D100" t="s">
+        <v>213</v>
+      </c>
+      <c r="E100" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" t="s">
+        <v>59</v>
+      </c>
+      <c r="C101" t="s">
+        <v>386</v>
+      </c>
+      <c r="D101" t="s">
+        <v>211</v>
+      </c>
+      <c r="E101" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" t="s">
+        <v>63</v>
+      </c>
+      <c r="F102" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" t="s">
+        <v>388</v>
+      </c>
+      <c r="D103" t="s">
+        <v>389</v>
+      </c>
+      <c r="E103" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>124</v>
+      </c>
+      <c r="B104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C104" t="s">
+        <v>391</v>
+      </c>
+      <c r="D104" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" t="s">
+        <v>392</v>
+      </c>
+      <c r="D105" t="s">
+        <v>393</v>
+      </c>
+      <c r="E105" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106" t="s">
+        <v>65</v>
+      </c>
+      <c r="F106" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" t="s">
+        <v>66</v>
+      </c>
+      <c r="F107" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" t="s">
+        <v>434</v>
+      </c>
+      <c r="D108" t="s">
+        <v>433</v>
+      </c>
+      <c r="E108" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" t="s">
+        <v>436</v>
+      </c>
+      <c r="D109" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" t="s">
+        <v>396</v>
+      </c>
+      <c r="D110" t="s">
+        <v>397</v>
+      </c>
+      <c r="E110" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" t="s">
+        <v>364</v>
+      </c>
+      <c r="D111" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" t="s">
+        <v>366</v>
+      </c>
+      <c r="D112" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" t="s">
+        <v>367</v>
+      </c>
+      <c r="D113" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" t="s">
+        <v>34</v>
+      </c>
+      <c r="C114" t="s">
+        <v>368</v>
+      </c>
+      <c r="D114" t="s">
+        <v>365</v>
+      </c>
+      <c r="E114" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" t="s">
+        <v>369</v>
+      </c>
+      <c r="D115" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" t="s">
+        <v>370</v>
+      </c>
+      <c r="D116" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="s">
+        <v>39</v>
+      </c>
+      <c r="F119" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120" t="s">
+        <v>373</v>
+      </c>
+      <c r="D120" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" t="s">
+        <v>438</v>
+      </c>
+      <c r="D121" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>73</v>
+      </c>
+      <c r="C122" t="s">
+        <v>236</v>
+      </c>
+      <c r="D122" t="s">
+        <v>51</v>
+      </c>
+      <c r="E122" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>74</v>
+      </c>
+      <c r="C123" t="s">
+        <v>236</v>
+      </c>
+      <c r="D123" t="s">
+        <v>51</v>
+      </c>
+      <c r="E123" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>75</v>
+      </c>
+      <c r="C124" t="s">
+        <v>236</v>
+      </c>
+      <c r="D124" t="s">
+        <v>51</v>
+      </c>
+      <c r="E124" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" t="s">
+        <v>399</v>
+      </c>
+      <c r="D126" t="s">
+        <v>399</v>
+      </c>
+      <c r="E126" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" t="s">
+        <v>323</v>
+      </c>
+      <c r="C127" t="s">
+        <v>401</v>
+      </c>
+      <c r="D127" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>124</v>
+      </c>
+      <c r="B128" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128" t="s">
+        <v>408</v>
+      </c>
+      <c r="D128" t="s">
+        <v>409</v>
+      </c>
+      <c r="E128" t="s">
+        <v>440</v>
+      </c>
+      <c r="F128" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>124</v>
+      </c>
+      <c r="B129" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" t="s">
+        <v>441</v>
+      </c>
+      <c r="D129" t="s">
+        <v>442</v>
+      </c>
+      <c r="E129" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>124</v>
+      </c>
+      <c r="B130" t="s">
+        <v>146</v>
+      </c>
+      <c r="C130" t="s">
+        <v>444</v>
+      </c>
+      <c r="D130" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>124</v>
+      </c>
+      <c r="B131" t="s">
+        <v>147</v>
+      </c>
+      <c r="C131" t="s">
+        <v>408</v>
+      </c>
+      <c r="D131" t="s">
+        <v>409</v>
+      </c>
+      <c r="E131" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133" t="s">
+        <v>126</v>
+      </c>
+      <c r="E133" t="s">
+        <v>376</v>
+      </c>
+      <c r="F133" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" t="s">
+        <v>52</v>
+      </c>
+      <c r="C134" t="s">
+        <v>377</v>
+      </c>
+      <c r="D134" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" t="s">
+        <v>53</v>
+      </c>
+      <c r="E135" t="s">
+        <v>379</v>
+      </c>
+      <c r="F135" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" t="s">
+        <v>127</v>
+      </c>
+      <c r="E136" t="s">
+        <v>380</v>
+      </c>
+      <c r="F136" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" t="s">
+        <v>129</v>
+      </c>
+      <c r="E137" t="s">
+        <v>448</v>
+      </c>
+      <c r="F137" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" t="s">
+        <v>130</v>
+      </c>
+      <c r="E138" t="s">
+        <v>449</v>
+      </c>
+      <c r="F138" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" t="s">
+        <v>382</v>
+      </c>
+      <c r="D139" t="s">
+        <v>381</v>
+      </c>
+      <c r="E139" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" t="s">
+        <v>57</v>
+      </c>
+      <c r="E140" t="s">
+        <v>450</v>
+      </c>
+      <c r="F140" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" t="s">
+        <v>58</v>
+      </c>
+      <c r="C141" t="s">
+        <v>384</v>
+      </c>
+      <c r="D141" t="s">
+        <v>213</v>
+      </c>
+      <c r="E141" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" t="s">
+        <v>386</v>
+      </c>
+      <c r="D142" t="s">
+        <v>211</v>
+      </c>
+      <c r="E142" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" t="s">
+        <v>63</v>
+      </c>
+      <c r="F143" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" t="s">
+        <v>68</v>
+      </c>
+      <c r="C144" t="s">
+        <v>388</v>
+      </c>
+      <c r="D144" t="s">
+        <v>389</v>
+      </c>
+      <c r="E144" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145" t="s">
+        <v>391</v>
+      </c>
+      <c r="D145" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>67</v>
+      </c>
+      <c r="C146" t="s">
+        <v>392</v>
+      </c>
+      <c r="D146" t="s">
+        <v>393</v>
+      </c>
+      <c r="E146" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>65</v>
+      </c>
+      <c r="F147" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>66</v>
+      </c>
+      <c r="F148" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>135</v>
+      </c>
+      <c r="C149" t="s">
+        <v>434</v>
+      </c>
+      <c r="D149" t="s">
+        <v>433</v>
+      </c>
+      <c r="E149" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>137</v>
+      </c>
+      <c r="C150" t="s">
+        <v>436</v>
+      </c>
+      <c r="D150" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>71</v>
+      </c>
+      <c r="C151" t="s">
+        <v>396</v>
+      </c>
+      <c r="D151" t="s">
+        <v>397</v>
+      </c>
+      <c r="E151" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" t="s">
+        <v>31</v>
+      </c>
+      <c r="C152" t="s">
+        <v>364</v>
+      </c>
+      <c r="D152" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" t="s">
+        <v>32</v>
+      </c>
+      <c r="C153" t="s">
+        <v>366</v>
+      </c>
+      <c r="D153" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" t="s">
+        <v>367</v>
+      </c>
+      <c r="D154" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>149</v>
+      </c>
+      <c r="B155" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" t="s">
+        <v>368</v>
+      </c>
+      <c r="D155" t="s">
+        <v>365</v>
+      </c>
+      <c r="E155" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>149</v>
+      </c>
+      <c r="B156" t="s">
+        <v>35</v>
+      </c>
+      <c r="C156" t="s">
+        <v>369</v>
+      </c>
+      <c r="D156" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>149</v>
+      </c>
+      <c r="B157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C157" t="s">
+        <v>370</v>
+      </c>
+      <c r="D157" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>149</v>
+      </c>
+      <c r="B158" t="s">
+        <v>37</v>
+      </c>
+      <c r="E158" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>149</v>
+      </c>
+      <c r="B159" t="s">
+        <v>38</v>
+      </c>
+      <c r="E159" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>149</v>
+      </c>
+      <c r="B160" t="s">
+        <v>39</v>
+      </c>
+      <c r="F160" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>149</v>
+      </c>
+      <c r="B161" t="s">
+        <v>40</v>
+      </c>
+      <c r="C161" t="s">
+        <v>373</v>
+      </c>
+      <c r="D161" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>149</v>
+      </c>
+      <c r="B162" t="s">
+        <v>72</v>
+      </c>
+      <c r="C162" t="s">
+        <v>438</v>
+      </c>
+      <c r="D162" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>149</v>
+      </c>
+      <c r="B163" t="s">
+        <v>73</v>
+      </c>
+      <c r="C163" t="s">
+        <v>236</v>
+      </c>
+      <c r="D163" t="s">
+        <v>51</v>
+      </c>
+      <c r="E163" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>149</v>
+      </c>
+      <c r="B164" t="s">
+        <v>74</v>
+      </c>
+      <c r="C164" t="s">
+        <v>236</v>
+      </c>
+      <c r="D164" t="s">
+        <v>51</v>
+      </c>
+      <c r="E164" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>149</v>
+      </c>
+      <c r="B165" t="s">
+        <v>75</v>
+      </c>
+      <c r="C165" t="s">
+        <v>236</v>
+      </c>
+      <c r="D165" t="s">
+        <v>51</v>
+      </c>
+      <c r="E165" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>149</v>
+      </c>
+      <c r="B166" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>149</v>
+      </c>
+      <c r="B167" t="s">
+        <v>77</v>
+      </c>
+      <c r="C167" t="s">
+        <v>399</v>
+      </c>
+      <c r="D167" t="s">
+        <v>399</v>
+      </c>
+      <c r="E167" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>149</v>
+      </c>
+      <c r="B168" t="s">
+        <v>323</v>
+      </c>
+      <c r="C168" t="s">
+        <v>401</v>
+      </c>
+      <c r="D168" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>149</v>
+      </c>
+      <c r="B169" t="s">
+        <v>150</v>
+      </c>
+      <c r="C169" t="s">
+        <v>452</v>
+      </c>
+      <c r="D169" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>149</v>
+      </c>
+      <c r="B170" t="s">
+        <v>151</v>
+      </c>
+      <c r="C170" t="s">
+        <v>453</v>
+      </c>
+      <c r="D170" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>149</v>
+      </c>
+      <c r="B171" t="s">
+        <v>152</v>
+      </c>
+      <c r="C171" t="s">
+        <v>455</v>
+      </c>
+      <c r="D171" t="s">
+        <v>456</v>
+      </c>
+      <c r="E171" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>149</v>
+      </c>
+      <c r="B172" t="s">
+        <v>153</v>
+      </c>
+      <c r="C172" t="s">
+        <v>458</v>
+      </c>
+      <c r="D172" t="s">
+        <v>459</v>
+      </c>
+      <c r="E172" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>149</v>
+      </c>
+      <c r="B173" t="s">
+        <v>156</v>
+      </c>
+      <c r="F173" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>149</v>
+      </c>
+      <c r="B174" t="s">
+        <v>465</v>
+      </c>
+      <c r="F174" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>149</v>
+      </c>
+      <c r="B175" t="s">
+        <v>157</v>
+      </c>
+      <c r="C175" t="s">
+        <v>461</v>
+      </c>
+      <c r="D175" t="s">
+        <v>358</v>
+      </c>
+      <c r="E175" t="s">
+        <v>462</v>
+      </c>
+      <c r="F175" t="s">
+        <v>446</v>
+      </c>
+      <c r="G175" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>149</v>
+      </c>
+      <c r="B176" t="s">
+        <v>159</v>
+      </c>
+      <c r="C176" t="s">
+        <v>463</v>
+      </c>
+      <c r="D176" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>149</v>
+      </c>
+      <c r="B177" t="s">
+        <v>158</v>
+      </c>
+      <c r="C177" t="s">
+        <v>464</v>
+      </c>
+      <c r="D177" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>149</v>
+      </c>
+      <c r="B178" t="s">
+        <v>160</v>
+      </c>
+      <c r="C178" t="s">
+        <v>466</v>
+      </c>
+      <c r="D178" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>149</v>
+      </c>
+      <c r="B179" t="s">
+        <v>161</v>
+      </c>
+      <c r="C179" t="s">
+        <v>467</v>
+      </c>
+      <c r="D179" t="s">
+        <v>468</v>
+      </c>
+      <c r="E179" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>162</v>
+      </c>
+      <c r="B181" t="s">
+        <v>126</v>
+      </c>
+      <c r="E181" t="s">
+        <v>376</v>
+      </c>
+      <c r="F181" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>162</v>
+      </c>
+      <c r="B182" t="s">
+        <v>52</v>
+      </c>
+      <c r="C182" t="s">
+        <v>377</v>
+      </c>
+      <c r="D182" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>162</v>
+      </c>
+      <c r="B183" t="s">
+        <v>53</v>
+      </c>
+      <c r="E183" t="s">
+        <v>379</v>
+      </c>
+      <c r="F183" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184" t="s">
+        <v>127</v>
+      </c>
+      <c r="E184" t="s">
+        <v>380</v>
+      </c>
+      <c r="F184" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>162</v>
+      </c>
+      <c r="B185" t="s">
+        <v>129</v>
+      </c>
+      <c r="E185" t="s">
+        <v>448</v>
+      </c>
+      <c r="F185" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>162</v>
+      </c>
+      <c r="B186" t="s">
+        <v>130</v>
+      </c>
+      <c r="E186" t="s">
+        <v>449</v>
+      </c>
+      <c r="F186" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>162</v>
+      </c>
+      <c r="B187" t="s">
+        <v>56</v>
+      </c>
+      <c r="C187" t="s">
+        <v>382</v>
+      </c>
+      <c r="D187" t="s">
+        <v>381</v>
+      </c>
+      <c r="E187" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>162</v>
+      </c>
+      <c r="B188" t="s">
+        <v>57</v>
+      </c>
+      <c r="E188" t="s">
+        <v>450</v>
+      </c>
+      <c r="F188" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>162</v>
+      </c>
+      <c r="B189" t="s">
+        <v>58</v>
+      </c>
+      <c r="C189" t="s">
+        <v>384</v>
+      </c>
+      <c r="D189" t="s">
+        <v>213</v>
+      </c>
+      <c r="E189" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>162</v>
+      </c>
+      <c r="B190" t="s">
+        <v>59</v>
+      </c>
+      <c r="C190" t="s">
+        <v>386</v>
+      </c>
+      <c r="D190" t="s">
+        <v>211</v>
+      </c>
+      <c r="E190" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>162</v>
+      </c>
+      <c r="B191" t="s">
+        <v>63</v>
+      </c>
+      <c r="F191" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>162</v>
+      </c>
+      <c r="B192" t="s">
+        <v>68</v>
+      </c>
+      <c r="C192" t="s">
+        <v>388</v>
+      </c>
+      <c r="D192" t="s">
+        <v>389</v>
+      </c>
+      <c r="E192" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>162</v>
+      </c>
+      <c r="B193" t="s">
+        <v>64</v>
+      </c>
+      <c r="C193" t="s">
+        <v>391</v>
+      </c>
+      <c r="D193" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>162</v>
+      </c>
+      <c r="B194" t="s">
+        <v>67</v>
+      </c>
+      <c r="C194" t="s">
+        <v>392</v>
+      </c>
+      <c r="D194" t="s">
+        <v>393</v>
+      </c>
+      <c r="E194" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>162</v>
+      </c>
+      <c r="B195" t="s">
+        <v>65</v>
+      </c>
+      <c r="F195" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>162</v>
+      </c>
+      <c r="B196" t="s">
+        <v>66</v>
+      </c>
+      <c r="F196" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>162</v>
+      </c>
+      <c r="B197" t="s">
+        <v>135</v>
+      </c>
+      <c r="C197" t="s">
+        <v>434</v>
+      </c>
+      <c r="D197" t="s">
+        <v>433</v>
+      </c>
+      <c r="E197" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>162</v>
+      </c>
+      <c r="B198" t="s">
+        <v>137</v>
+      </c>
+      <c r="C198" t="s">
+        <v>436</v>
+      </c>
+      <c r="D198" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>162</v>
+      </c>
+      <c r="B199" t="s">
+        <v>71</v>
+      </c>
+      <c r="C199" t="s">
+        <v>396</v>
+      </c>
+      <c r="D199" t="s">
+        <v>397</v>
+      </c>
+      <c r="E199" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>162</v>
+      </c>
+      <c r="B200" t="s">
+        <v>31</v>
+      </c>
+      <c r="C200" t="s">
+        <v>364</v>
+      </c>
+      <c r="D200" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>162</v>
+      </c>
+      <c r="B201" t="s">
+        <v>32</v>
+      </c>
+      <c r="C201" t="s">
+        <v>366</v>
+      </c>
+      <c r="D201" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>162</v>
+      </c>
+      <c r="B202" t="s">
+        <v>33</v>
+      </c>
+      <c r="C202" t="s">
+        <v>367</v>
+      </c>
+      <c r="D202" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>162</v>
+      </c>
+      <c r="B203" t="s">
+        <v>34</v>
+      </c>
+      <c r="C203" t="s">
+        <v>368</v>
+      </c>
+      <c r="D203" t="s">
+        <v>365</v>
+      </c>
+      <c r="E203" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>162</v>
+      </c>
+      <c r="B204" t="s">
+        <v>35</v>
+      </c>
+      <c r="C204" t="s">
+        <v>369</v>
+      </c>
+      <c r="D204" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>162</v>
+      </c>
+      <c r="B205" t="s">
+        <v>36</v>
+      </c>
+      <c r="C205" t="s">
+        <v>370</v>
+      </c>
+      <c r="D205" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>162</v>
+      </c>
+      <c r="B206" t="s">
+        <v>37</v>
+      </c>
+      <c r="E206" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>162</v>
+      </c>
+      <c r="B207" t="s">
+        <v>38</v>
+      </c>
+      <c r="E207" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>162</v>
+      </c>
+      <c r="B208" t="s">
+        <v>39</v>
+      </c>
+      <c r="F208" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>162</v>
+      </c>
+      <c r="B209" t="s">
+        <v>40</v>
+      </c>
+      <c r="C209" t="s">
+        <v>373</v>
+      </c>
+      <c r="D209" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>162</v>
+      </c>
+      <c r="B210" t="s">
+        <v>72</v>
+      </c>
+      <c r="C210" t="s">
+        <v>438</v>
+      </c>
+      <c r="D210" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>162</v>
+      </c>
+      <c r="B211" t="s">
+        <v>73</v>
+      </c>
+      <c r="C211" t="s">
+        <v>236</v>
+      </c>
+      <c r="D211" t="s">
+        <v>51</v>
+      </c>
+      <c r="E211" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>162</v>
+      </c>
+      <c r="B212" t="s">
+        <v>74</v>
+      </c>
+      <c r="C212" t="s">
+        <v>236</v>
+      </c>
+      <c r="D212" t="s">
+        <v>51</v>
+      </c>
+      <c r="E212" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>162</v>
+      </c>
+      <c r="B213" t="s">
+        <v>75</v>
+      </c>
+      <c r="C213" t="s">
+        <v>236</v>
+      </c>
+      <c r="D213" t="s">
+        <v>51</v>
+      </c>
+      <c r="E213" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>162</v>
+      </c>
+      <c r="B214" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>162</v>
+      </c>
+      <c r="B215" t="s">
+        <v>77</v>
+      </c>
+      <c r="C215" t="s">
+        <v>399</v>
+      </c>
+      <c r="D215" t="s">
+        <v>399</v>
+      </c>
+      <c r="E215" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>162</v>
+      </c>
+      <c r="B216" t="s">
+        <v>323</v>
+      </c>
+      <c r="C216" t="s">
+        <v>401</v>
+      </c>
+      <c r="D216" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>162</v>
+      </c>
+      <c r="B217" t="s">
+        <v>146</v>
+      </c>
+      <c r="C217" t="s">
+        <v>444</v>
+      </c>
+      <c r="D217" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>162</v>
+      </c>
+      <c r="B218" t="s">
+        <v>147</v>
+      </c>
+      <c r="C218" t="s">
+        <v>408</v>
+      </c>
+      <c r="D218" t="s">
+        <v>409</v>
+      </c>
+      <c r="E218" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>162</v>
+      </c>
+      <c r="B219" t="s">
+        <v>179</v>
+      </c>
+      <c r="C219" t="s">
+        <v>472</v>
+      </c>
+      <c r="D219" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>162</v>
+      </c>
+      <c r="B220" t="s">
+        <v>471</v>
+      </c>
+      <c r="C220" t="s">
+        <v>473</v>
+      </c>
+      <c r="D220" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B222" t="s">
+        <v>50</v>
+      </c>
+      <c r="E222" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B223" t="s">
+        <v>180</v>
+      </c>
+      <c r="E223" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B224" t="s">
+        <v>181</v>
+      </c>
+      <c r="E224" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B225" t="s">
+        <v>183</v>
+      </c>
+      <c r="C225" t="s">
+        <v>234</v>
+      </c>
+      <c r="D225" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B226" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>185</v>
+      </c>
+      <c r="B228" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>185</v>
+      </c>
+      <c r="B229" t="s">
+        <v>188</v>
+      </c>
+      <c r="C229" t="s">
+        <v>227</v>
+      </c>
+      <c r="D229" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>185</v>
+      </c>
+      <c r="B230" t="s">
+        <v>477</v>
+      </c>
+      <c r="C230" t="s">
+        <v>481</v>
+      </c>
+      <c r="D230" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>185</v>
+      </c>
+      <c r="B231" t="s">
+        <v>187</v>
+      </c>
+      <c r="C231" t="s">
+        <v>226</v>
+      </c>
+      <c r="D231" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>276</v>
+      </c>
+      <c r="B233" t="s">
+        <v>189</v>
+      </c>
+      <c r="E233" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>276</v>
+      </c>
+      <c r="B234" t="s">
+        <v>190</v>
+      </c>
+      <c r="E234" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>276</v>
+      </c>
+      <c r="B235" t="s">
+        <v>181</v>
+      </c>
+      <c r="C235" t="s">
+        <v>484</v>
+      </c>
+      <c r="D235" t="s">
+        <v>485</v>
+      </c>
+      <c r="E235" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>276</v>
+      </c>
+      <c r="B236" t="s">
+        <v>192</v>
+      </c>
+      <c r="C236" t="s">
+        <v>482</v>
+      </c>
+      <c r="D236" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>276</v>
+      </c>
+      <c r="B237" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Formulario - Base de datos.xlsx
+++ b/Formulario - Base de datos.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="488">
   <si>
     <t>Gobernacion maritima</t>
   </si>
@@ -1067,9 +1067,6 @@
     <t>FCInicioDenuncia</t>
   </si>
   <si>
-    <t>CDTPLugarProcedimiento</t>
-  </si>
-  <si>
     <t>GLTPLugarProcedimiento</t>
   </si>
   <si>
@@ -1476,6 +1473,15 @@
   </si>
   <si>
     <t>Funcionarios</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>LGSexoMasculino</t>
+  </si>
+  <si>
+    <t>Personas.PersonaNatural</t>
   </si>
 </sst>
 </file>
@@ -9564,8 +9570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D235" sqref="D235"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9596,6 +9602,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>485</v>
+      </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -9604,6 +9613,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>485</v>
+      </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -9612,6 +9624,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>485</v>
+      </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -9620,20 +9635,26 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>485</v>
+      </c>
       <c r="B5" t="s">
         <v>294</v>
       </c>
       <c r="C5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D5" t="s">
         <v>343</v>
       </c>
       <c r="E5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>485</v>
+      </c>
       <c r="B6" t="s">
         <v>295</v>
       </c>
@@ -9641,13 +9662,16 @@
         <v>346</v>
       </c>
       <c r="D6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" t="s">
         <v>351</v>
       </c>
-      <c r="E6" t="s">
-        <v>352</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>485</v>
+      </c>
       <c r="B7" t="s">
         <v>342</v>
       </c>
@@ -9659,6 +9683,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>485</v>
+      </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -9670,6 +9697,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>485</v>
+      </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -9681,25 +9711,31 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>485</v>
+      </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D10" t="s">
         <v>215</v>
       </c>
       <c r="E10" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>485</v>
+      </c>
       <c r="B11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9710,7 +9746,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9721,13 +9757,13 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" t="s">
         <v>359</v>
-      </c>
-      <c r="D14" t="s">
-        <v>358</v>
-      </c>
-      <c r="E14" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9738,13 +9774,13 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9755,13 +9791,13 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9772,13 +9808,13 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D17" t="s">
         <v>215</v>
       </c>
       <c r="E17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9789,10 +9825,10 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
+        <v>363</v>
+      </c>
+      <c r="D18" t="s">
         <v>364</v>
-      </c>
-      <c r="D18" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9803,10 +9839,10 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9817,10 +9853,10 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9831,10 +9867,10 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E21" t="s">
         <v>293</v>
@@ -9848,10 +9884,10 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -9862,10 +9898,10 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9876,7 +9912,7 @@
         <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9887,7 +9923,7 @@
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9898,7 +9934,7 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -9909,10 +9945,10 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -9923,10 +9959,10 @@
         <v>302</v>
       </c>
       <c r="C28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -9937,10 +9973,10 @@
         <v>304</v>
       </c>
       <c r="C29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -9951,7 +9987,10 @@
         <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>376</v>
+        <v>375</v>
+      </c>
+      <c r="F31" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9962,10 +10001,10 @@
         <v>52</v>
       </c>
       <c r="C32" t="s">
+        <v>376</v>
+      </c>
+      <c r="D32" t="s">
         <v>377</v>
-      </c>
-      <c r="D32" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9976,7 +10015,10 @@
         <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>379</v>
+        <v>378</v>
+      </c>
+      <c r="F33" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9987,7 +10029,10 @@
         <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>380</v>
+        <v>379</v>
+      </c>
+      <c r="F34" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9998,7 +10043,10 @@
         <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>448</v>
+        <v>447</v>
+      </c>
+      <c r="F35" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -10006,10 +10054,13 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E36" t="s">
-        <v>449</v>
+        <v>448</v>
+      </c>
+      <c r="F36" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -10020,13 +10071,13 @@
         <v>56</v>
       </c>
       <c r="C37" t="s">
+        <v>381</v>
+      </c>
+      <c r="D37" t="s">
+        <v>380</v>
+      </c>
+      <c r="E37" t="s">
         <v>382</v>
-      </c>
-      <c r="D37" t="s">
-        <v>381</v>
-      </c>
-      <c r="E37" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -10037,7 +10088,10 @@
         <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>450</v>
+        <v>449</v>
+      </c>
+      <c r="F38" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -10048,13 +10102,13 @@
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D39" t="s">
         <v>213</v>
       </c>
       <c r="E39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -10065,13 +10119,13 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D40" t="s">
         <v>211</v>
       </c>
       <c r="E40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -10081,8 +10135,14 @@
       <c r="B41" t="s">
         <v>63</v>
       </c>
+      <c r="C41" t="s">
+        <v>486</v>
+      </c>
+      <c r="D41" t="s">
+        <v>487</v>
+      </c>
       <c r="F41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -10093,13 +10153,13 @@
         <v>68</v>
       </c>
       <c r="C42" t="s">
+        <v>387</v>
+      </c>
+      <c r="D42" t="s">
         <v>388</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>389</v>
-      </c>
-      <c r="E42" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10110,10 +10170,10 @@
         <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -10124,13 +10184,13 @@
         <v>67</v>
       </c>
       <c r="C44" t="s">
+        <v>391</v>
+      </c>
+      <c r="D44" t="s">
         <v>392</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>393</v>
-      </c>
-      <c r="E44" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -10141,7 +10201,7 @@
         <v>65</v>
       </c>
       <c r="F45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -10152,7 +10212,7 @@
         <v>66</v>
       </c>
       <c r="F46" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -10163,13 +10223,13 @@
         <v>71</v>
       </c>
       <c r="C47" t="s">
+        <v>395</v>
+      </c>
+      <c r="D47" t="s">
         <v>396</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>397</v>
-      </c>
-      <c r="E47" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -10180,10 +10240,10 @@
         <v>31</v>
       </c>
       <c r="C48" t="s">
+        <v>363</v>
+      </c>
+      <c r="D48" t="s">
         <v>364</v>
-      </c>
-      <c r="D48" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -10194,10 +10254,10 @@
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -10208,10 +10268,10 @@
         <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D50" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -10222,10 +10282,10 @@
         <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E51" t="s">
         <v>293</v>
@@ -10239,10 +10299,10 @@
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -10253,10 +10313,10 @@
         <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -10267,7 +10327,7 @@
         <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -10278,7 +10338,7 @@
         <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -10289,7 +10349,7 @@
         <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -10300,10 +10360,10 @@
         <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D57" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -10387,13 +10447,13 @@
         <v>77</v>
       </c>
       <c r="C63" t="s">
+        <v>398</v>
+      </c>
+      <c r="D63" t="s">
+        <v>398</v>
+      </c>
+      <c r="E63" t="s">
         <v>399</v>
-      </c>
-      <c r="D63" t="s">
-        <v>399</v>
-      </c>
-      <c r="E63" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -10404,10 +10464,10 @@
         <v>323</v>
       </c>
       <c r="C64" t="s">
+        <v>400</v>
+      </c>
+      <c r="D64" t="s">
         <v>401</v>
-      </c>
-      <c r="D64" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -10415,16 +10475,16 @@
         <v>49</v>
       </c>
       <c r="B65" t="s">
+        <v>403</v>
+      </c>
+      <c r="C65" t="s">
         <v>404</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>405</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>406</v>
-      </c>
-      <c r="E65" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -10435,13 +10495,13 @@
         <v>78</v>
       </c>
       <c r="C66" t="s">
+        <v>407</v>
+      </c>
+      <c r="D66" t="s">
         <v>408</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>409</v>
-      </c>
-      <c r="E66" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -10452,10 +10512,10 @@
         <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D67" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -10466,16 +10526,16 @@
         <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D68" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E68" t="s">
         <v>328</v>
       </c>
       <c r="F68" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -10489,13 +10549,13 @@
         <v>326</v>
       </c>
       <c r="D69" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E69" t="s">
         <v>328</v>
       </c>
       <c r="F69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -10509,13 +10569,13 @@
         <v>325</v>
       </c>
       <c r="D70" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E70" t="s">
         <v>328</v>
       </c>
       <c r="F70" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -10526,13 +10586,13 @@
         <v>194</v>
       </c>
       <c r="C72" t="s">
+        <v>412</v>
+      </c>
+      <c r="D72" t="s">
         <v>413</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>414</v>
-      </c>
-      <c r="E72" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -10543,10 +10603,10 @@
         <v>94</v>
       </c>
       <c r="C73" t="s">
+        <v>415</v>
+      </c>
+      <c r="D73" t="s">
         <v>416</v>
-      </c>
-      <c r="D73" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -10557,10 +10617,10 @@
         <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D74" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -10571,10 +10631,10 @@
         <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D75" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -10585,13 +10645,13 @@
         <v>100</v>
       </c>
       <c r="C77" t="s">
+        <v>425</v>
+      </c>
+      <c r="D77" t="s">
         <v>426</v>
       </c>
-      <c r="D77" t="s">
-        <v>427</v>
-      </c>
       <c r="E77" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -10611,7 +10671,7 @@
         <v>330</v>
       </c>
       <c r="F78" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -10631,7 +10691,7 @@
         <v>331</v>
       </c>
       <c r="F79" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -10642,10 +10702,10 @@
         <v>103</v>
       </c>
       <c r="C80" t="s">
+        <v>420</v>
+      </c>
+      <c r="D80" t="s">
         <v>421</v>
-      </c>
-      <c r="D80" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -10656,10 +10716,10 @@
         <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D81" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -10670,10 +10730,10 @@
         <v>105</v>
       </c>
       <c r="C82" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D82" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -10684,10 +10744,10 @@
         <v>106</v>
       </c>
       <c r="C83" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D83" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -10698,13 +10758,13 @@
         <v>101</v>
       </c>
       <c r="C84" t="s">
+        <v>425</v>
+      </c>
+      <c r="D84" t="s">
         <v>426</v>
       </c>
-      <c r="D84" t="s">
-        <v>427</v>
-      </c>
       <c r="E84" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -10715,10 +10775,10 @@
         <v>114</v>
       </c>
       <c r="C85" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -10729,10 +10789,10 @@
         <v>118</v>
       </c>
       <c r="C86" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D86" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E86" s="5"/>
     </row>
@@ -10744,10 +10804,10 @@
         <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D87" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -10758,10 +10818,10 @@
         <v>120</v>
       </c>
       <c r="C88" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D88" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -10772,10 +10832,10 @@
         <v>123</v>
       </c>
       <c r="C89" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D89" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -10786,10 +10846,10 @@
         <v>125</v>
       </c>
       <c r="E91" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F91" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -10800,10 +10860,10 @@
         <v>126</v>
       </c>
       <c r="E92" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F92" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -10814,10 +10874,10 @@
         <v>52</v>
       </c>
       <c r="C93" t="s">
+        <v>376</v>
+      </c>
+      <c r="D93" t="s">
         <v>377</v>
-      </c>
-      <c r="D93" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -10828,10 +10888,10 @@
         <v>53</v>
       </c>
       <c r="E94" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F94" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -10842,10 +10902,10 @@
         <v>127</v>
       </c>
       <c r="E95" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F95" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -10856,10 +10916,10 @@
         <v>129</v>
       </c>
       <c r="E96" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F96" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -10870,10 +10930,10 @@
         <v>130</v>
       </c>
       <c r="E97" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F97" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -10884,13 +10944,13 @@
         <v>56</v>
       </c>
       <c r="C98" t="s">
+        <v>381</v>
+      </c>
+      <c r="D98" t="s">
+        <v>380</v>
+      </c>
+      <c r="E98" t="s">
         <v>382</v>
-      </c>
-      <c r="D98" t="s">
-        <v>381</v>
-      </c>
-      <c r="E98" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -10901,10 +10961,10 @@
         <v>57</v>
       </c>
       <c r="E99" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F99" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -10915,13 +10975,13 @@
         <v>58</v>
       </c>
       <c r="C100" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D100" t="s">
         <v>213</v>
       </c>
       <c r="E100" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -10932,13 +10992,13 @@
         <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D101" t="s">
         <v>211</v>
       </c>
       <c r="E101" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -10949,7 +11009,7 @@
         <v>63</v>
       </c>
       <c r="F102" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -10960,13 +11020,13 @@
         <v>68</v>
       </c>
       <c r="C103" t="s">
+        <v>387</v>
+      </c>
+      <c r="D103" t="s">
         <v>388</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>389</v>
-      </c>
-      <c r="E103" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -10977,10 +11037,10 @@
         <v>64</v>
       </c>
       <c r="C104" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D104" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -10991,13 +11051,13 @@
         <v>67</v>
       </c>
       <c r="C105" t="s">
+        <v>391</v>
+      </c>
+      <c r="D105" t="s">
         <v>392</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>393</v>
-      </c>
-      <c r="E105" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -11008,7 +11068,7 @@
         <v>65</v>
       </c>
       <c r="F106" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -11019,7 +11079,7 @@
         <v>66</v>
       </c>
       <c r="F107" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -11030,13 +11090,13 @@
         <v>135</v>
       </c>
       <c r="C108" t="s">
+        <v>433</v>
+      </c>
+      <c r="D108" t="s">
+        <v>432</v>
+      </c>
+      <c r="E108" t="s">
         <v>434</v>
-      </c>
-      <c r="D108" t="s">
-        <v>433</v>
-      </c>
-      <c r="E108" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -11047,10 +11107,10 @@
         <v>137</v>
       </c>
       <c r="C109" t="s">
+        <v>435</v>
+      </c>
+      <c r="D109" t="s">
         <v>436</v>
-      </c>
-      <c r="D109" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -11061,13 +11121,13 @@
         <v>71</v>
       </c>
       <c r="C110" t="s">
+        <v>395</v>
+      </c>
+      <c r="D110" t="s">
         <v>396</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>397</v>
-      </c>
-      <c r="E110" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -11078,10 +11138,10 @@
         <v>31</v>
       </c>
       <c r="C111" t="s">
+        <v>363</v>
+      </c>
+      <c r="D111" t="s">
         <v>364</v>
-      </c>
-      <c r="D111" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -11092,10 +11152,10 @@
         <v>32</v>
       </c>
       <c r="C112" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D112" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -11106,10 +11166,10 @@
         <v>33</v>
       </c>
       <c r="C113" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D113" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -11120,10 +11180,10 @@
         <v>34</v>
       </c>
       <c r="C114" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D114" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E114" t="s">
         <v>293</v>
@@ -11137,10 +11197,10 @@
         <v>35</v>
       </c>
       <c r="C115" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D115" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -11151,10 +11211,10 @@
         <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -11165,7 +11225,7 @@
         <v>37</v>
       </c>
       <c r="E117" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -11176,7 +11236,7 @@
         <v>38</v>
       </c>
       <c r="E118" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -11187,7 +11247,7 @@
         <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -11198,10 +11258,10 @@
         <v>40</v>
       </c>
       <c r="C120" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D120" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -11212,10 +11272,10 @@
         <v>72</v>
       </c>
       <c r="C121" t="s">
+        <v>437</v>
+      </c>
+      <c r="D121" t="s">
         <v>438</v>
-      </c>
-      <c r="D121" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -11285,13 +11345,13 @@
         <v>77</v>
       </c>
       <c r="C126" t="s">
+        <v>398</v>
+      </c>
+      <c r="D126" t="s">
+        <v>398</v>
+      </c>
+      <c r="E126" t="s">
         <v>399</v>
-      </c>
-      <c r="D126" t="s">
-        <v>399</v>
-      </c>
-      <c r="E126" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -11302,10 +11362,10 @@
         <v>323</v>
       </c>
       <c r="C127" t="s">
+        <v>400</v>
+      </c>
+      <c r="D127" t="s">
         <v>401</v>
-      </c>
-      <c r="D127" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -11316,16 +11376,16 @@
         <v>144</v>
       </c>
       <c r="C128" t="s">
+        <v>407</v>
+      </c>
+      <c r="D128" t="s">
         <v>408</v>
       </c>
-      <c r="D128" t="s">
-        <v>409</v>
-      </c>
       <c r="E128" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F128" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -11336,13 +11396,13 @@
         <v>145</v>
       </c>
       <c r="C129" t="s">
+        <v>440</v>
+      </c>
+      <c r="D129" t="s">
         <v>441</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>442</v>
-      </c>
-      <c r="E129" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -11353,10 +11413,10 @@
         <v>146</v>
       </c>
       <c r="C130" t="s">
+        <v>443</v>
+      </c>
+      <c r="D130" t="s">
         <v>444</v>
-      </c>
-      <c r="D130" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -11367,13 +11427,13 @@
         <v>147</v>
       </c>
       <c r="C131" t="s">
+        <v>407</v>
+      </c>
+      <c r="D131" t="s">
         <v>408</v>
       </c>
-      <c r="D131" t="s">
-        <v>409</v>
-      </c>
       <c r="E131" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -11384,10 +11444,10 @@
         <v>126</v>
       </c>
       <c r="E133" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F133" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -11398,10 +11458,10 @@
         <v>52</v>
       </c>
       <c r="C134" t="s">
+        <v>376</v>
+      </c>
+      <c r="D134" t="s">
         <v>377</v>
-      </c>
-      <c r="D134" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -11412,10 +11472,10 @@
         <v>53</v>
       </c>
       <c r="E135" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F135" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -11426,10 +11486,10 @@
         <v>127</v>
       </c>
       <c r="E136" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F136" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -11440,10 +11500,10 @@
         <v>129</v>
       </c>
       <c r="E137" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F137" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -11454,10 +11514,10 @@
         <v>130</v>
       </c>
       <c r="E138" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F138" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -11468,13 +11528,13 @@
         <v>56</v>
       </c>
       <c r="C139" t="s">
+        <v>381</v>
+      </c>
+      <c r="D139" t="s">
+        <v>380</v>
+      </c>
+      <c r="E139" t="s">
         <v>382</v>
-      </c>
-      <c r="D139" t="s">
-        <v>381</v>
-      </c>
-      <c r="E139" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -11485,10 +11545,10 @@
         <v>57</v>
       </c>
       <c r="E140" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F140" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -11499,13 +11559,13 @@
         <v>58</v>
       </c>
       <c r="C141" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D141" t="s">
         <v>213</v>
       </c>
       <c r="E141" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -11516,13 +11576,13 @@
         <v>59</v>
       </c>
       <c r="C142" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D142" t="s">
         <v>211</v>
       </c>
       <c r="E142" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -11533,7 +11593,7 @@
         <v>63</v>
       </c>
       <c r="F143" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -11544,13 +11604,13 @@
         <v>68</v>
       </c>
       <c r="C144" t="s">
+        <v>387</v>
+      </c>
+      <c r="D144" t="s">
         <v>388</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>389</v>
-      </c>
-      <c r="E144" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -11561,10 +11621,10 @@
         <v>64</v>
       </c>
       <c r="C145" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D145" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -11575,13 +11635,13 @@
         <v>67</v>
       </c>
       <c r="C146" t="s">
+        <v>391</v>
+      </c>
+      <c r="D146" t="s">
         <v>392</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>393</v>
-      </c>
-      <c r="E146" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -11592,7 +11652,7 @@
         <v>65</v>
       </c>
       <c r="F147" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -11603,7 +11663,7 @@
         <v>66</v>
       </c>
       <c r="F148" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -11614,13 +11674,13 @@
         <v>135</v>
       </c>
       <c r="C149" t="s">
+        <v>433</v>
+      </c>
+      <c r="D149" t="s">
+        <v>432</v>
+      </c>
+      <c r="E149" t="s">
         <v>434</v>
-      </c>
-      <c r="D149" t="s">
-        <v>433</v>
-      </c>
-      <c r="E149" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -11631,10 +11691,10 @@
         <v>137</v>
       </c>
       <c r="C150" t="s">
+        <v>435</v>
+      </c>
+      <c r="D150" t="s">
         <v>436</v>
-      </c>
-      <c r="D150" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -11645,13 +11705,13 @@
         <v>71</v>
       </c>
       <c r="C151" t="s">
+        <v>395</v>
+      </c>
+      <c r="D151" t="s">
         <v>396</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>397</v>
-      </c>
-      <c r="E151" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -11662,10 +11722,10 @@
         <v>31</v>
       </c>
       <c r="C152" t="s">
+        <v>363</v>
+      </c>
+      <c r="D152" t="s">
         <v>364</v>
-      </c>
-      <c r="D152" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -11676,10 +11736,10 @@
         <v>32</v>
       </c>
       <c r="C153" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D153" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -11690,10 +11750,10 @@
         <v>33</v>
       </c>
       <c r="C154" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D154" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -11704,10 +11764,10 @@
         <v>34</v>
       </c>
       <c r="C155" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D155" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E155" t="s">
         <v>293</v>
@@ -11721,10 +11781,10 @@
         <v>35</v>
       </c>
       <c r="C156" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D156" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -11735,10 +11795,10 @@
         <v>36</v>
       </c>
       <c r="C157" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D157" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -11749,7 +11809,7 @@
         <v>37</v>
       </c>
       <c r="E158" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -11760,7 +11820,7 @@
         <v>38</v>
       </c>
       <c r="E159" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -11771,7 +11831,7 @@
         <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -11782,10 +11842,10 @@
         <v>40</v>
       </c>
       <c r="C161" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D161" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -11796,10 +11856,10 @@
         <v>72</v>
       </c>
       <c r="C162" t="s">
+        <v>437</v>
+      </c>
+      <c r="D162" t="s">
         <v>438</v>
-      </c>
-      <c r="D162" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -11869,13 +11929,13 @@
         <v>77</v>
       </c>
       <c r="C167" t="s">
+        <v>398</v>
+      </c>
+      <c r="D167" t="s">
+        <v>398</v>
+      </c>
+      <c r="E167" t="s">
         <v>399</v>
-      </c>
-      <c r="D167" t="s">
-        <v>399</v>
-      </c>
-      <c r="E167" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -11886,10 +11946,10 @@
         <v>323</v>
       </c>
       <c r="C168" t="s">
+        <v>400</v>
+      </c>
+      <c r="D168" t="s">
         <v>401</v>
-      </c>
-      <c r="D168" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -11900,10 +11960,10 @@
         <v>150</v>
       </c>
       <c r="C169" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D169" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -11914,10 +11974,10 @@
         <v>151</v>
       </c>
       <c r="C170" t="s">
+        <v>452</v>
+      </c>
+      <c r="D170" t="s">
         <v>453</v>
-      </c>
-      <c r="D170" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -11928,13 +11988,13 @@
         <v>152</v>
       </c>
       <c r="C171" t="s">
+        <v>454</v>
+      </c>
+      <c r="D171" t="s">
         <v>455</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>456</v>
-      </c>
-      <c r="E171" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -11945,13 +12005,13 @@
         <v>153</v>
       </c>
       <c r="C172" t="s">
+        <v>457</v>
+      </c>
+      <c r="D172" t="s">
         <v>458</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>459</v>
-      </c>
-      <c r="E172" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -11962,7 +12022,7 @@
         <v>156</v>
       </c>
       <c r="F173" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -11970,10 +12030,10 @@
         <v>149</v>
       </c>
       <c r="B174" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -11984,19 +12044,19 @@
         <v>157</v>
       </c>
       <c r="C175" t="s">
+        <v>460</v>
+      </c>
+      <c r="D175" t="s">
+        <v>357</v>
+      </c>
+      <c r="E175" t="s">
         <v>461</v>
       </c>
-      <c r="D175" t="s">
-        <v>358</v>
-      </c>
-      <c r="E175" t="s">
-        <v>462</v>
-      </c>
       <c r="F175" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G175" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -12007,7 +12067,7 @@
         <v>159</v>
       </c>
       <c r="C176" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D176" t="s">
         <v>228</v>
@@ -12021,7 +12081,7 @@
         <v>158</v>
       </c>
       <c r="C177" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D177" t="s">
         <v>228</v>
@@ -12035,7 +12095,7 @@
         <v>160</v>
       </c>
       <c r="C178" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D178" t="s">
         <v>228</v>
@@ -12049,13 +12109,13 @@
         <v>161</v>
       </c>
       <c r="C179" t="s">
+        <v>466</v>
+      </c>
+      <c r="D179" t="s">
         <v>467</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>468</v>
-      </c>
-      <c r="E179" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -12066,10 +12126,10 @@
         <v>126</v>
       </c>
       <c r="E181" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F181" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -12080,10 +12140,10 @@
         <v>52</v>
       </c>
       <c r="C182" t="s">
+        <v>376</v>
+      </c>
+      <c r="D182" t="s">
         <v>377</v>
-      </c>
-      <c r="D182" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -12094,10 +12154,10 @@
         <v>53</v>
       </c>
       <c r="E183" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F183" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -12108,10 +12168,10 @@
         <v>127</v>
       </c>
       <c r="E184" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F184" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -12122,10 +12182,10 @@
         <v>129</v>
       </c>
       <c r="E185" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F185" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -12136,10 +12196,10 @@
         <v>130</v>
       </c>
       <c r="E186" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F186" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -12150,13 +12210,13 @@
         <v>56</v>
       </c>
       <c r="C187" t="s">
+        <v>381</v>
+      </c>
+      <c r="D187" t="s">
+        <v>380</v>
+      </c>
+      <c r="E187" t="s">
         <v>382</v>
-      </c>
-      <c r="D187" t="s">
-        <v>381</v>
-      </c>
-      <c r="E187" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -12167,10 +12227,10 @@
         <v>57</v>
       </c>
       <c r="E188" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F188" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -12181,13 +12241,13 @@
         <v>58</v>
       </c>
       <c r="C189" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D189" t="s">
         <v>213</v>
       </c>
       <c r="E189" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -12198,13 +12258,13 @@
         <v>59</v>
       </c>
       <c r="C190" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D190" t="s">
         <v>211</v>
       </c>
       <c r="E190" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -12215,7 +12275,7 @@
         <v>63</v>
       </c>
       <c r="F191" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -12226,13 +12286,13 @@
         <v>68</v>
       </c>
       <c r="C192" t="s">
+        <v>387</v>
+      </c>
+      <c r="D192" t="s">
         <v>388</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>389</v>
-      </c>
-      <c r="E192" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -12243,10 +12303,10 @@
         <v>64</v>
       </c>
       <c r="C193" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D193" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -12257,13 +12317,13 @@
         <v>67</v>
       </c>
       <c r="C194" t="s">
+        <v>391</v>
+      </c>
+      <c r="D194" t="s">
         <v>392</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>393</v>
-      </c>
-      <c r="E194" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -12274,7 +12334,7 @@
         <v>65</v>
       </c>
       <c r="F195" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -12285,7 +12345,7 @@
         <v>66</v>
       </c>
       <c r="F196" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -12296,13 +12356,13 @@
         <v>135</v>
       </c>
       <c r="C197" t="s">
+        <v>433</v>
+      </c>
+      <c r="D197" t="s">
+        <v>432</v>
+      </c>
+      <c r="E197" t="s">
         <v>434</v>
-      </c>
-      <c r="D197" t="s">
-        <v>433</v>
-      </c>
-      <c r="E197" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -12313,10 +12373,10 @@
         <v>137</v>
       </c>
       <c r="C198" t="s">
+        <v>435</v>
+      </c>
+      <c r="D198" t="s">
         <v>436</v>
-      </c>
-      <c r="D198" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -12327,13 +12387,13 @@
         <v>71</v>
       </c>
       <c r="C199" t="s">
+        <v>395</v>
+      </c>
+      <c r="D199" t="s">
         <v>396</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>397</v>
-      </c>
-      <c r="E199" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -12344,10 +12404,10 @@
         <v>31</v>
       </c>
       <c r="C200" t="s">
+        <v>363</v>
+      </c>
+      <c r="D200" t="s">
         <v>364</v>
-      </c>
-      <c r="D200" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -12358,10 +12418,10 @@
         <v>32</v>
       </c>
       <c r="C201" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D201" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -12372,10 +12432,10 @@
         <v>33</v>
       </c>
       <c r="C202" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D202" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -12386,10 +12446,10 @@
         <v>34</v>
       </c>
       <c r="C203" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D203" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E203" t="s">
         <v>293</v>
@@ -12403,10 +12463,10 @@
         <v>35</v>
       </c>
       <c r="C204" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D204" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -12417,10 +12477,10 @@
         <v>36</v>
       </c>
       <c r="C205" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D205" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -12431,7 +12491,7 @@
         <v>37</v>
       </c>
       <c r="E206" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -12442,7 +12502,7 @@
         <v>38</v>
       </c>
       <c r="E207" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -12453,7 +12513,7 @@
         <v>39</v>
       </c>
       <c r="F208" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -12464,10 +12524,10 @@
         <v>40</v>
       </c>
       <c r="C209" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D209" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -12478,10 +12538,10 @@
         <v>72</v>
       </c>
       <c r="C210" t="s">
+        <v>437</v>
+      </c>
+      <c r="D210" t="s">
         <v>438</v>
-      </c>
-      <c r="D210" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -12551,13 +12611,13 @@
         <v>77</v>
       </c>
       <c r="C215" t="s">
+        <v>398</v>
+      </c>
+      <c r="D215" t="s">
+        <v>398</v>
+      </c>
+      <c r="E215" t="s">
         <v>399</v>
-      </c>
-      <c r="D215" t="s">
-        <v>399</v>
-      </c>
-      <c r="E215" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -12568,10 +12628,10 @@
         <v>323</v>
       </c>
       <c r="C216" t="s">
+        <v>400</v>
+      </c>
+      <c r="D216" t="s">
         <v>401</v>
-      </c>
-      <c r="D216" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -12582,10 +12642,10 @@
         <v>146</v>
       </c>
       <c r="C217" t="s">
+        <v>443</v>
+      </c>
+      <c r="D217" t="s">
         <v>444</v>
-      </c>
-      <c r="D217" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -12596,13 +12656,13 @@
         <v>147</v>
       </c>
       <c r="C218" t="s">
+        <v>407</v>
+      </c>
+      <c r="D218" t="s">
         <v>408</v>
       </c>
-      <c r="D218" t="s">
-        <v>409</v>
-      </c>
       <c r="E218" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -12613,10 +12673,10 @@
         <v>179</v>
       </c>
       <c r="C219" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D219" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -12624,13 +12684,13 @@
         <v>162</v>
       </c>
       <c r="B220" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C220" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D220" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -12641,7 +12701,7 @@
         <v>50</v>
       </c>
       <c r="E222" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -12652,7 +12712,7 @@
         <v>180</v>
       </c>
       <c r="E223" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -12663,7 +12723,7 @@
         <v>181</v>
       </c>
       <c r="E224" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -12707,7 +12767,7 @@
         <v>227</v>
       </c>
       <c r="D229" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -12715,13 +12775,13 @@
         <v>185</v>
       </c>
       <c r="B230" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C230" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D230" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -12735,7 +12795,7 @@
         <v>226</v>
       </c>
       <c r="D231" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -12746,7 +12806,7 @@
         <v>189</v>
       </c>
       <c r="E233" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -12757,7 +12817,7 @@
         <v>190</v>
       </c>
       <c r="E234" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -12768,13 +12828,13 @@
         <v>181</v>
       </c>
       <c r="C235" t="s">
+        <v>483</v>
+      </c>
+      <c r="D235" t="s">
         <v>484</v>
       </c>
-      <c r="D235" t="s">
-        <v>485</v>
-      </c>
       <c r="E235" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -12785,10 +12845,10 @@
         <v>192</v>
       </c>
       <c r="C236" t="s">
+        <v>481</v>
+      </c>
+      <c r="D236" t="s">
         <v>482</v>
-      </c>
-      <c r="D236" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">

--- a/Formulario - Base de datos.xlsx
+++ b/Formulario - Base de datos.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="493">
   <si>
     <t>Gobernacion maritima</t>
   </si>
@@ -1482,6 +1482,21 @@
   </si>
   <si>
     <t>Personas.PersonaNatural</t>
+  </si>
+  <si>
+    <t>falta campo</t>
+  </si>
+  <si>
+    <t>donde se ingresa el dato</t>
+  </si>
+  <si>
+    <t>falta campo, donde se ingresa el dato</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>personas a quien el niño conto hechos</t>
   </si>
 </sst>
 </file>
@@ -9570,8 +9585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9581,10 +9596,10 @@
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>273</v>
       </c>
@@ -9600,8 +9615,11 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>485</v>
       </c>
@@ -9612,7 +9630,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>485</v>
       </c>
@@ -9622,8 +9640,14 @@
       <c r="E3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>485</v>
       </c>
@@ -9633,8 +9657,14 @@
       <c r="E4" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>485</v>
       </c>
@@ -9651,7 +9681,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>485</v>
       </c>
@@ -9668,7 +9698,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>485</v>
       </c>
@@ -9682,7 +9712,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>485</v>
       </c>
@@ -9696,7 +9726,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>485</v>
       </c>
@@ -9710,7 +9740,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>485</v>
       </c>
@@ -9727,7 +9757,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>485</v>
       </c>
@@ -9737,8 +9767,11 @@
       <c r="F11" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>274</v>
       </c>
@@ -9748,8 +9781,11 @@
       <c r="F13" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>274</v>
       </c>
@@ -9766,7 +9802,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -9783,7 +9819,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>274</v>
       </c>
@@ -9800,7 +9836,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>274</v>
       </c>
@@ -9817,7 +9853,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>274</v>
       </c>
@@ -9831,7 +9867,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>274</v>
       </c>
@@ -9845,7 +9881,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>274</v>
       </c>
@@ -9859,7 +9895,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>274</v>
       </c>
@@ -9876,7 +9912,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>274</v>
       </c>
@@ -9890,7 +9926,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>274</v>
       </c>
@@ -9904,7 +9940,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>274</v>
       </c>
@@ -9915,7 +9951,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>274</v>
       </c>
@@ -9926,7 +9962,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>274</v>
       </c>
@@ -9936,8 +9972,11 @@
       <c r="F26" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>274</v>
       </c>
@@ -9951,7 +9990,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>274</v>
       </c>
@@ -9965,7 +10004,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>274</v>
       </c>
@@ -9979,7 +10018,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -9992,8 +10031,11 @@
       <c r="F31" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -10007,7 +10049,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -10020,8 +10062,11 @@
       <c r="F33" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -10034,8 +10079,11 @@
       <c r="F34" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -10048,8 +10096,11 @@
       <c r="F35" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -10062,8 +10113,11 @@
       <c r="F36" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -10080,7 +10134,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -10093,8 +10147,11 @@
       <c r="F38" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -10111,7 +10168,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -10128,7 +10185,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -10144,8 +10201,11 @@
       <c r="F41" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -10162,7 +10222,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -10176,7 +10236,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -10193,7 +10253,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -10203,8 +10263,11 @@
       <c r="F45" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -10214,8 +10277,11 @@
       <c r="F46" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -10232,7 +10298,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -10246,7 +10312,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -10260,7 +10326,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -10274,7 +10340,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -10291,7 +10357,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -10305,7 +10371,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -10319,7 +10385,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -10330,7 +10396,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -10341,7 +10407,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -10351,8 +10417,11 @@
       <c r="F56" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -10366,7 +10435,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -10380,7 +10449,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -10397,7 +10466,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -10414,7 +10483,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -10431,7 +10500,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -10439,7 +10508,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -10456,7 +10525,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -10470,7 +10539,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -10487,7 +10556,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -10504,7 +10573,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -10518,7 +10587,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -10537,13 +10606,16 @@
       <c r="F68" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>492</v>
       </c>
       <c r="C69" t="s">
         <v>326</v>
@@ -10557,8 +10629,11 @@
       <c r="F69" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -10577,8 +10652,11 @@
       <c r="F70" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>93</v>
       </c>
@@ -10595,7 +10673,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>93</v>
       </c>
@@ -10609,7 +10687,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -10623,7 +10701,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -10637,7 +10715,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>329</v>
       </c>
@@ -10654,7 +10732,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>329</v>
       </c>
@@ -10674,7 +10752,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>329</v>
       </c>
@@ -10694,7 +10772,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>329</v>
       </c>

--- a/Formulario - Base de datos.xlsx
+++ b/Formulario - Base de datos.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="493">
   <si>
     <t>Gobernacion maritima</t>
   </si>
@@ -1484,9 +1484,6 @@
     <t>Personas.PersonaNatural</t>
   </si>
   <si>
-    <t>falta campo</t>
-  </si>
-  <si>
     <t>donde se ingresa el dato</t>
   </si>
   <si>
@@ -1497,6 +1494,9 @@
   </si>
   <si>
     <t>personas a quien el niño conto hechos</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -9583,23 +9583,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G237"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>273</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>485</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>485</v>
       </c>
@@ -9644,10 +9644,13 @@
         <v>445</v>
       </c>
       <c r="G3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="H3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>485</v>
       </c>
@@ -9661,10 +9664,13 @@
         <v>445</v>
       </c>
       <c r="G4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="H4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>485</v>
       </c>
@@ -9681,7 +9687,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>485</v>
       </c>
@@ -9698,7 +9704,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>485</v>
       </c>
@@ -9712,7 +9718,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>485</v>
       </c>
@@ -9726,7 +9732,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>485</v>
       </c>
@@ -9740,7 +9746,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>485</v>
       </c>
@@ -9757,7 +9763,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>485</v>
       </c>
@@ -9768,10 +9774,13 @@
         <v>445</v>
       </c>
       <c r="G11" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+      <c r="H11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>274</v>
       </c>
@@ -9782,10 +9791,13 @@
         <v>445</v>
       </c>
       <c r="G13" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+      <c r="H13" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>274</v>
       </c>
@@ -9802,7 +9814,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -9819,7 +9831,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>274</v>
       </c>
@@ -9836,7 +9848,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>274</v>
       </c>
@@ -9853,7 +9865,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>274</v>
       </c>
@@ -9867,7 +9879,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>274</v>
       </c>
@@ -9881,7 +9893,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>274</v>
       </c>
@@ -9895,7 +9907,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>274</v>
       </c>
@@ -9912,7 +9924,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>274</v>
       </c>
@@ -9926,7 +9938,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>274</v>
       </c>
@@ -9940,7 +9952,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>274</v>
       </c>
@@ -9951,7 +9963,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>274</v>
       </c>
@@ -9962,499 +9974,532 @@
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>274</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" t="s">
-        <v>445</v>
-      </c>
-      <c r="G26" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>274</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="C27" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D27" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>274</v>
       </c>
       <c r="B28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D28" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>274</v>
-      </c>
-      <c r="B29" t="s">
-        <v>304</v>
-      </c>
-      <c r="C29" t="s">
-        <v>373</v>
-      </c>
-      <c r="D29" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>375</v>
+      </c>
+      <c r="F30" t="s">
+        <v>445</v>
+      </c>
+      <c r="G30" t="s">
+        <v>488</v>
+      </c>
+      <c r="H30" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" t="s">
-        <v>375</v>
-      </c>
-      <c r="F31" t="s">
-        <v>445</v>
-      </c>
-      <c r="G31" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>376</v>
+      </c>
+      <c r="D31" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" t="s">
-        <v>376</v>
-      </c>
-      <c r="D32" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>378</v>
+      </c>
+      <c r="F32" t="s">
+        <v>445</v>
+      </c>
+      <c r="G32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H32" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F33" t="s">
         <v>445</v>
       </c>
       <c r="G33" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="H33" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="E34" t="s">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="F34" t="s">
         <v>445</v>
       </c>
       <c r="G34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="H34" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>446</v>
       </c>
       <c r="E35" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F35" t="s">
         <v>445</v>
       </c>
       <c r="G35" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="H35" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>446</v>
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>381</v>
+      </c>
+      <c r="D36" t="s">
+        <v>380</v>
       </c>
       <c r="E36" t="s">
-        <v>448</v>
-      </c>
-      <c r="F36" t="s">
-        <v>445</v>
-      </c>
-      <c r="G36" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" t="s">
-        <v>381</v>
-      </c>
-      <c r="D37" t="s">
-        <v>380</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="F37" t="s">
+        <v>445</v>
+      </c>
+      <c r="G37" t="s">
+        <v>488</v>
+      </c>
+      <c r="H37" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" t="s">
+        <v>213</v>
       </c>
       <c r="E38" t="s">
-        <v>449</v>
-      </c>
-      <c r="F38" t="s">
-        <v>445</v>
-      </c>
-      <c r="G38" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E39" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
-      </c>
-      <c r="E40" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="F40" t="s">
+        <v>445</v>
+      </c>
+      <c r="G40" t="s">
+        <v>488</v>
+      </c>
+      <c r="H40" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>486</v>
+        <v>387</v>
       </c>
       <c r="D41" t="s">
-        <v>487</v>
-      </c>
-      <c r="F41" t="s">
-        <v>445</v>
-      </c>
-      <c r="G41" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D42" t="s">
-        <v>388</v>
-      </c>
-      <c r="E42" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D43" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="E43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" t="s">
-        <v>391</v>
-      </c>
-      <c r="D44" t="s">
-        <v>392</v>
-      </c>
-      <c r="E44" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F44" t="s">
+        <v>445</v>
+      </c>
+      <c r="G44" t="s">
+        <v>488</v>
+      </c>
+      <c r="H44" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F45" t="s">
         <v>445</v>
       </c>
       <c r="G45" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="H45" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" t="s">
-        <v>445</v>
-      </c>
-      <c r="G46" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>395</v>
+      </c>
+      <c r="D46" t="s">
+        <v>396</v>
+      </c>
+      <c r="E46" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="D47" t="s">
-        <v>396</v>
-      </c>
-      <c r="E47" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D48" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D49" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D50" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D51" t="s">
         <v>364</v>
       </c>
-      <c r="E51" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D52" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" t="s">
-        <v>369</v>
-      </c>
-      <c r="D53" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>372</v>
+      </c>
+      <c r="D55" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" t="s">
-        <v>445</v>
-      </c>
-      <c r="G56" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>307</v>
+      </c>
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>372</v>
+        <v>236</v>
       </c>
       <c r="D57" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E57" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
-        <v>307</v>
+        <v>236</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
         <v>236</v>
@@ -10463,139 +10508,148 @@
         <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" t="s">
-        <v>236</v>
-      </c>
-      <c r="D60" t="s">
-        <v>51</v>
-      </c>
-      <c r="E60" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>398</v>
       </c>
       <c r="E61" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="C62" t="s">
+        <v>400</v>
+      </c>
+      <c r="D62" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="C63" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D63" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="E63" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D64" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="E64" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D65" t="s">
-        <v>405</v>
-      </c>
-      <c r="E65" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D66" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E66" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="F66" t="s">
+        <v>445</v>
+      </c>
+      <c r="G66" t="s">
+        <v>490</v>
+      </c>
+      <c r="H66" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="C67" t="s">
-        <v>410</v>
+        <v>326</v>
       </c>
       <c r="D67" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>411</v>
+        <v>325</v>
       </c>
       <c r="D68" t="s">
         <v>402</v>
@@ -10603,855 +10657,882 @@
       <c r="E68" t="s">
         <v>328</v>
       </c>
-      <c r="F68" t="s">
-        <v>445</v>
-      </c>
-      <c r="G68" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>49</v>
-      </c>
-      <c r="B69" t="s">
-        <v>492</v>
-      </c>
-      <c r="C69" t="s">
-        <v>326</v>
-      </c>
-      <c r="D69" t="s">
-        <v>402</v>
-      </c>
-      <c r="E69" t="s">
-        <v>328</v>
-      </c>
-      <c r="F69" t="s">
-        <v>445</v>
-      </c>
-      <c r="G69" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s">
-        <v>325</v>
+        <v>412</v>
       </c>
       <c r="D70" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="E70" t="s">
-        <v>328</v>
-      </c>
-      <c r="F70" t="s">
-        <v>445</v>
-      </c>
-      <c r="G70" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" t="s">
+        <v>415</v>
+      </c>
+      <c r="D71" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="C72" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D72" t="s">
-        <v>413</v>
-      </c>
-      <c r="E72" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C73" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D73" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" t="s">
-        <v>417</v>
-      </c>
-      <c r="D74" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="D75" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="E75" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>329</v>
+      </c>
+      <c r="B76" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" t="s">
+        <v>330</v>
+      </c>
+      <c r="F76" t="s">
+        <v>445</v>
+      </c>
+      <c r="G76" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>329</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>425</v>
+        <v>113</v>
       </c>
       <c r="D77" t="s">
-        <v>426</v>
+        <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="F77" t="s">
+        <v>445</v>
+      </c>
+      <c r="G77" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>329</v>
       </c>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>420</v>
       </c>
       <c r="D78" t="s">
-        <v>51</v>
-      </c>
-      <c r="E78" t="s">
-        <v>330</v>
-      </c>
-      <c r="F78" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>329</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>422</v>
       </c>
       <c r="D79" t="s">
-        <v>51</v>
-      </c>
-      <c r="E79" t="s">
-        <v>331</v>
-      </c>
-      <c r="F79" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>329</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C80" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D80" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>329</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D81" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>329</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C82" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="E82" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>329</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D83" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>329</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D84" t="s">
-        <v>426</v>
-      </c>
-      <c r="E84" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>329</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C85" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D85" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>329</v>
       </c>
       <c r="B86" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D86" t="s">
         <v>421</v>
       </c>
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>329</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D87" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>329</v>
-      </c>
-      <c r="B88" t="s">
-        <v>120</v>
-      </c>
-      <c r="C88" t="s">
-        <v>430</v>
-      </c>
-      <c r="D88" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>329</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" t="s">
-        <v>431</v>
-      </c>
-      <c r="D89" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="E89" t="s">
+        <v>450</v>
+      </c>
+      <c r="F89" t="s">
+        <v>445</v>
+      </c>
+      <c r="G89" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" t="s">
+        <v>126</v>
+      </c>
+      <c r="E90" t="s">
+        <v>375</v>
+      </c>
+      <c r="F90" t="s">
+        <v>445</v>
+      </c>
+      <c r="G90" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>125</v>
-      </c>
-      <c r="E91" t="s">
-        <v>450</v>
-      </c>
-      <c r="F91" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C91" t="s">
+        <v>376</v>
+      </c>
+      <c r="D91" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>124</v>
       </c>
       <c r="B92" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="E92" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F92" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" t="s">
-        <v>376</v>
-      </c>
-      <c r="D93" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E93" t="s">
+        <v>379</v>
+      </c>
+      <c r="F93" t="s">
+        <v>445</v>
+      </c>
+      <c r="G93" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="E94" t="s">
-        <v>378</v>
+        <v>447</v>
       </c>
       <c r="F94" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>124</v>
       </c>
       <c r="B95" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E95" t="s">
-        <v>379</v>
+        <v>448</v>
       </c>
       <c r="F95" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>124</v>
       </c>
       <c r="B96" t="s">
-        <v>129</v>
+        <v>56</v>
+      </c>
+      <c r="C96" t="s">
+        <v>381</v>
+      </c>
+      <c r="D96" t="s">
+        <v>380</v>
       </c>
       <c r="E96" t="s">
-        <v>447</v>
-      </c>
-      <c r="F96" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>124</v>
       </c>
       <c r="B97" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="E97" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F97" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>124</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D98" t="s">
-        <v>380</v>
+        <v>213</v>
       </c>
       <c r="E98" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>124</v>
       </c>
       <c r="B99" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="C99" t="s">
+        <v>385</v>
+      </c>
+      <c r="D99" t="s">
+        <v>211</v>
       </c>
       <c r="E99" t="s">
-        <v>449</v>
-      </c>
-      <c r="F99" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>124</v>
       </c>
       <c r="B100" t="s">
-        <v>58</v>
-      </c>
-      <c r="C100" t="s">
-        <v>383</v>
-      </c>
-      <c r="D100" t="s">
-        <v>213</v>
-      </c>
-      <c r="E100" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="F100" t="s">
+        <v>445</v>
+      </c>
+      <c r="G100" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>124</v>
       </c>
       <c r="B101" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C101" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D101" t="s">
-        <v>211</v>
+        <v>388</v>
       </c>
       <c r="E101" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>124</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
-      </c>
-      <c r="F102" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="C102" t="s">
+        <v>390</v>
+      </c>
+      <c r="D102" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>124</v>
       </c>
       <c r="B103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C103" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D103" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E103" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" t="s">
-        <v>390</v>
-      </c>
-      <c r="D104" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F104" t="s">
+        <v>445</v>
+      </c>
+      <c r="G104" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
-      </c>
-      <c r="C105" t="s">
-        <v>391</v>
-      </c>
-      <c r="D105" t="s">
-        <v>392</v>
-      </c>
-      <c r="E105" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="F105" t="s">
+        <v>445</v>
+      </c>
+      <c r="G105" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>124</v>
       </c>
       <c r="B106" t="s">
-        <v>65</v>
-      </c>
-      <c r="F106" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="C106" t="s">
+        <v>433</v>
+      </c>
+      <c r="D106" t="s">
+        <v>432</v>
+      </c>
+      <c r="E106" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>124</v>
       </c>
       <c r="B107" t="s">
-        <v>66</v>
-      </c>
-      <c r="F107" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="C107" t="s">
+        <v>435</v>
+      </c>
+      <c r="D107" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>124</v>
       </c>
       <c r="B108" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C108" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="D108" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="E108" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="C109" t="s">
-        <v>435</v>
+        <v>363</v>
       </c>
       <c r="D109" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>124</v>
       </c>
       <c r="B110" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="D110" t="s">
-        <v>396</v>
-      </c>
-      <c r="E110" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>124</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D111" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>124</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C112" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D112" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C113" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D113" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D114" t="s">
         <v>364</v>
       </c>
-      <c r="E114" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>124</v>
       </c>
       <c r="B115" t="s">
-        <v>35</v>
-      </c>
-      <c r="C115" t="s">
-        <v>368</v>
-      </c>
-      <c r="D115" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E115" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>36</v>
-      </c>
-      <c r="C116" t="s">
-        <v>369</v>
-      </c>
-      <c r="D116" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E116" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
-      </c>
-      <c r="E117" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C117" t="s">
+        <v>372</v>
+      </c>
+      <c r="D117" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
-      </c>
-      <c r="E118" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C118" t="s">
+        <v>437</v>
+      </c>
+      <c r="D118" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
-      </c>
-      <c r="F119" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C119" t="s">
+        <v>236</v>
+      </c>
+      <c r="D119" t="s">
+        <v>51</v>
+      </c>
+      <c r="E119" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C120" t="s">
-        <v>372</v>
+        <v>236</v>
       </c>
       <c r="D120" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E120" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C121" t="s">
-        <v>437</v>
+        <v>236</v>
       </c>
       <c r="D121" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E121" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>73</v>
-      </c>
-      <c r="C122" t="s">
-        <v>236</v>
-      </c>
-      <c r="D122" t="s">
-        <v>51</v>
-      </c>
-      <c r="E122" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C123" t="s">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="D123" t="s">
-        <v>51</v>
+        <v>398</v>
       </c>
       <c r="E123" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>75</v>
+        <v>323</v>
       </c>
       <c r="C124" t="s">
-        <v>236</v>
+        <v>400</v>
       </c>
       <c r="D124" t="s">
-        <v>51</v>
-      </c>
-      <c r="E124" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="C125" t="s">
+        <v>407</v>
+      </c>
+      <c r="D125" t="s">
+        <v>408</v>
+      </c>
+      <c r="E125" t="s">
+        <v>439</v>
+      </c>
+      <c r="F125" t="s">
+        <v>445</v>
+      </c>
+      <c r="G125" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C126" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="D126" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="E126" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>323</v>
+        <v>146</v>
       </c>
       <c r="C127" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="D127" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C128" t="s">
         <v>407</v>
@@ -11462,454 +11543,478 @@
       <c r="E128" t="s">
         <v>439</v>
       </c>
-      <c r="F128" t="s">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" t="s">
+        <v>126</v>
+      </c>
+      <c r="E130" t="s">
+        <v>375</v>
+      </c>
+      <c r="F130" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>124</v>
-      </c>
-      <c r="B129" t="s">
-        <v>145</v>
-      </c>
-      <c r="C129" t="s">
-        <v>440</v>
-      </c>
-      <c r="D129" t="s">
-        <v>441</v>
-      </c>
-      <c r="E129" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>124</v>
-      </c>
-      <c r="B130" t="s">
-        <v>146</v>
-      </c>
-      <c r="C130" t="s">
-        <v>443</v>
-      </c>
-      <c r="D130" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="C131" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="D131" t="s">
-        <v>408</v>
-      </c>
-      <c r="E131" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>149</v>
+      </c>
+      <c r="B132" t="s">
+        <v>53</v>
+      </c>
+      <c r="E132" t="s">
+        <v>378</v>
+      </c>
+      <c r="F132" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>149</v>
       </c>
       <c r="B133" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E133" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F133" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>52</v>
-      </c>
-      <c r="C134" t="s">
-        <v>376</v>
-      </c>
-      <c r="D134" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="E134" t="s">
+        <v>447</v>
+      </c>
+      <c r="F134" t="s">
+        <v>445</v>
+      </c>
+      <c r="G134" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>149</v>
       </c>
       <c r="B135" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E135" t="s">
-        <v>378</v>
+        <v>448</v>
       </c>
       <c r="F135" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>149</v>
       </c>
       <c r="B136" t="s">
-        <v>127</v>
+        <v>56</v>
+      </c>
+      <c r="C136" t="s">
+        <v>381</v>
+      </c>
+      <c r="D136" t="s">
+        <v>380</v>
       </c>
       <c r="E136" t="s">
-        <v>379</v>
-      </c>
-      <c r="F136" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>149</v>
       </c>
       <c r="B137" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="E137" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F137" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>130</v>
+        <v>58</v>
+      </c>
+      <c r="C138" t="s">
+        <v>383</v>
+      </c>
+      <c r="D138" t="s">
+        <v>213</v>
       </c>
       <c r="E138" t="s">
-        <v>448</v>
-      </c>
-      <c r="F138" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>149</v>
       </c>
       <c r="B139" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C139" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D139" t="s">
-        <v>380</v>
+        <v>211</v>
       </c>
       <c r="E139" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>57</v>
-      </c>
-      <c r="E140" t="s">
-        <v>449</v>
+        <v>63</v>
       </c>
       <c r="F140" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C141" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D141" t="s">
-        <v>213</v>
+        <v>388</v>
       </c>
       <c r="E141" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C142" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D142" t="s">
-        <v>211</v>
-      </c>
-      <c r="E142" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>63</v>
-      </c>
-      <c r="F143" t="s">
+        <v>67</v>
+      </c>
+      <c r="C143" t="s">
+        <v>391</v>
+      </c>
+      <c r="D143" t="s">
+        <v>392</v>
+      </c>
+      <c r="E143" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" t="s">
+        <v>65</v>
+      </c>
+      <c r="F144" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>149</v>
-      </c>
-      <c r="B144" t="s">
-        <v>68</v>
-      </c>
-      <c r="C144" t="s">
-        <v>387</v>
-      </c>
-      <c r="D144" t="s">
-        <v>388</v>
-      </c>
-      <c r="E144" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>64</v>
-      </c>
-      <c r="C145" t="s">
-        <v>390</v>
-      </c>
-      <c r="D145" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="F145" t="s">
+        <v>445</v>
+      </c>
+      <c r="G145" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="C146" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="D146" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="E146" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>65</v>
-      </c>
-      <c r="F147" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="C147" t="s">
+        <v>435</v>
+      </c>
+      <c r="D147" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>66</v>
-      </c>
-      <c r="F148" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="C148" t="s">
+        <v>395</v>
+      </c>
+      <c r="D148" t="s">
+        <v>396</v>
+      </c>
+      <c r="E148" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C149" t="s">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="D149" t="s">
-        <v>432</v>
-      </c>
-      <c r="E149" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="C150" t="s">
-        <v>435</v>
+        <v>365</v>
       </c>
       <c r="D150" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C151" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="D151" t="s">
-        <v>396</v>
-      </c>
-      <c r="E151" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C152" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D152" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C153" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D153" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>149</v>
       </c>
       <c r="B154" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C154" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D154" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>149</v>
       </c>
       <c r="B155" t="s">
-        <v>34</v>
-      </c>
-      <c r="C155" t="s">
-        <v>367</v>
-      </c>
-      <c r="D155" t="s">
-        <v>364</v>
+        <v>37</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>149</v>
       </c>
       <c r="B156" t="s">
-        <v>35</v>
-      </c>
-      <c r="C156" t="s">
-        <v>368</v>
-      </c>
-      <c r="D156" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E156" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>149</v>
       </c>
       <c r="B157" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C157" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D157" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>149</v>
       </c>
       <c r="B158" t="s">
-        <v>37</v>
-      </c>
-      <c r="E158" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C158" t="s">
+        <v>437</v>
+      </c>
+      <c r="D158" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>149</v>
       </c>
       <c r="B159" t="s">
-        <v>38</v>
+        <v>73</v>
+      </c>
+      <c r="C159" t="s">
+        <v>236</v>
+      </c>
+      <c r="D159" t="s">
+        <v>51</v>
       </c>
       <c r="E159" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>149</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
-      </c>
-      <c r="F160" t="s">
-        <v>445</v>
+        <v>74</v>
+      </c>
+      <c r="C160" t="s">
+        <v>236</v>
+      </c>
+      <c r="D160" t="s">
+        <v>51</v>
+      </c>
+      <c r="E160" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -11917,13 +12022,16 @@
         <v>149</v>
       </c>
       <c r="B161" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C161" t="s">
-        <v>372</v>
+        <v>236</v>
       </c>
       <c r="D161" t="s">
-        <v>364</v>
+        <v>51</v>
+      </c>
+      <c r="E161" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -11931,13 +12039,7 @@
         <v>149</v>
       </c>
       <c r="B162" t="s">
-        <v>72</v>
-      </c>
-      <c r="C162" t="s">
-        <v>437</v>
-      </c>
-      <c r="D162" t="s">
-        <v>438</v>
+        <v>76</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -11945,16 +12047,16 @@
         <v>149</v>
       </c>
       <c r="B163" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C163" t="s">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="D163" t="s">
-        <v>51</v>
+        <v>398</v>
       </c>
       <c r="E163" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -11962,16 +12064,13 @@
         <v>149</v>
       </c>
       <c r="B164" t="s">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="C164" t="s">
-        <v>236</v>
+        <v>400</v>
       </c>
       <c r="D164" t="s">
-        <v>51</v>
-      </c>
-      <c r="E164" t="s">
-        <v>320</v>
+        <v>401</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -11979,16 +12078,13 @@
         <v>149</v>
       </c>
       <c r="B165" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C165" t="s">
-        <v>236</v>
+        <v>451</v>
       </c>
       <c r="D165" t="s">
-        <v>51</v>
-      </c>
-      <c r="E165" t="s">
-        <v>321</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -11996,7 +12092,13 @@
         <v>149</v>
       </c>
       <c r="B166" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="C166" t="s">
+        <v>452</v>
+      </c>
+      <c r="D166" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -12004,16 +12106,16 @@
         <v>149</v>
       </c>
       <c r="B167" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="C167" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="D167" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="E167" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -12021,13 +12123,16 @@
         <v>149</v>
       </c>
       <c r="B168" t="s">
-        <v>323</v>
+        <v>153</v>
       </c>
       <c r="C168" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="D168" t="s">
-        <v>401</v>
+        <v>458</v>
+      </c>
+      <c r="E168" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -12035,13 +12140,10 @@
         <v>149</v>
       </c>
       <c r="B169" t="s">
-        <v>150</v>
-      </c>
-      <c r="C169" t="s">
-        <v>451</v>
-      </c>
-      <c r="D169" t="s">
-        <v>453</v>
+        <v>156</v>
+      </c>
+      <c r="F169" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -12049,13 +12151,10 @@
         <v>149</v>
       </c>
       <c r="B170" t="s">
-        <v>151</v>
-      </c>
-      <c r="C170" t="s">
-        <v>452</v>
-      </c>
-      <c r="D170" t="s">
-        <v>453</v>
+        <v>464</v>
+      </c>
+      <c r="F170" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -12063,16 +12162,22 @@
         <v>149</v>
       </c>
       <c r="B171" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C171" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D171" t="s">
-        <v>455</v>
+        <v>357</v>
       </c>
       <c r="E171" t="s">
-        <v>456</v>
+        <v>461</v>
+      </c>
+      <c r="F171" t="s">
+        <v>445</v>
+      </c>
+      <c r="G171" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -12080,16 +12185,13 @@
         <v>149</v>
       </c>
       <c r="B172" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C172" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D172" t="s">
-        <v>458</v>
-      </c>
-      <c r="E172" t="s">
-        <v>459</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -12097,10 +12199,13 @@
         <v>149</v>
       </c>
       <c r="B173" t="s">
-        <v>156</v>
-      </c>
-      <c r="F173" t="s">
-        <v>445</v>
+        <v>158</v>
+      </c>
+      <c r="C173" t="s">
+        <v>463</v>
+      </c>
+      <c r="D173" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -12108,10 +12213,13 @@
         <v>149</v>
       </c>
       <c r="B174" t="s">
-        <v>464</v>
-      </c>
-      <c r="F174" t="s">
-        <v>445</v>
+        <v>160</v>
+      </c>
+      <c r="C174" t="s">
+        <v>465</v>
+      </c>
+      <c r="D174" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -12119,81 +12227,72 @@
         <v>149</v>
       </c>
       <c r="B175" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C175" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D175" t="s">
-        <v>357</v>
+        <v>467</v>
       </c>
       <c r="E175" t="s">
-        <v>461</v>
-      </c>
-      <c r="F175" t="s">
-        <v>445</v>
-      </c>
-      <c r="G175" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>149</v>
-      </c>
-      <c r="B176" t="s">
-        <v>159</v>
-      </c>
-      <c r="C176" t="s">
-        <v>462</v>
-      </c>
-      <c r="D176" t="s">
-        <v>228</v>
+        <v>468</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B177" t="s">
-        <v>158</v>
-      </c>
-      <c r="C177" t="s">
-        <v>463</v>
-      </c>
-      <c r="D177" t="s">
-        <v>228</v>
+        <v>126</v>
+      </c>
+      <c r="E177" t="s">
+        <v>375</v>
+      </c>
+      <c r="F177" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B178" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="C178" t="s">
-        <v>465</v>
+        <v>376</v>
       </c>
       <c r="D178" t="s">
-        <v>228</v>
+        <v>377</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B179" t="s">
-        <v>161</v>
-      </c>
-      <c r="C179" t="s">
-        <v>466</v>
-      </c>
-      <c r="D179" t="s">
-        <v>467</v>
+        <v>53</v>
       </c>
       <c r="E179" t="s">
-        <v>468</v>
+        <v>378</v>
+      </c>
+      <c r="F179" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>162</v>
+      </c>
+      <c r="B180" t="s">
+        <v>127</v>
+      </c>
+      <c r="E180" t="s">
+        <v>379</v>
+      </c>
+      <c r="F180" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -12201,10 +12300,10 @@
         <v>162</v>
       </c>
       <c r="B181" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E181" t="s">
-        <v>375</v>
+        <v>447</v>
       </c>
       <c r="F181" t="s">
         <v>445</v>
@@ -12215,13 +12314,13 @@
         <v>162</v>
       </c>
       <c r="B182" t="s">
-        <v>52</v>
-      </c>
-      <c r="C182" t="s">
-        <v>376</v>
-      </c>
-      <c r="D182" t="s">
-        <v>377</v>
+        <v>130</v>
+      </c>
+      <c r="E182" t="s">
+        <v>448</v>
+      </c>
+      <c r="F182" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -12229,13 +12328,16 @@
         <v>162</v>
       </c>
       <c r="B183" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C183" t="s">
+        <v>381</v>
+      </c>
+      <c r="D183" t="s">
+        <v>380</v>
       </c>
       <c r="E183" t="s">
-        <v>378</v>
-      </c>
-      <c r="F183" t="s">
-        <v>445</v>
+        <v>382</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -12243,10 +12345,10 @@
         <v>162</v>
       </c>
       <c r="B184" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="E184" t="s">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="F184" t="s">
         <v>445</v>
@@ -12257,13 +12359,16 @@
         <v>162</v>
       </c>
       <c r="B185" t="s">
-        <v>129</v>
+        <v>58</v>
+      </c>
+      <c r="C185" t="s">
+        <v>383</v>
+      </c>
+      <c r="D185" t="s">
+        <v>213</v>
       </c>
       <c r="E185" t="s">
-        <v>447</v>
-      </c>
-      <c r="F185" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -12271,13 +12376,16 @@
         <v>162</v>
       </c>
       <c r="B186" t="s">
-        <v>130</v>
+        <v>59</v>
+      </c>
+      <c r="C186" t="s">
+        <v>385</v>
+      </c>
+      <c r="D186" t="s">
+        <v>211</v>
       </c>
       <c r="E186" t="s">
-        <v>448</v>
-      </c>
-      <c r="F186" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -12285,16 +12393,10 @@
         <v>162</v>
       </c>
       <c r="B187" t="s">
-        <v>56</v>
-      </c>
-      <c r="C187" t="s">
-        <v>381</v>
-      </c>
-      <c r="D187" t="s">
-        <v>380</v>
-      </c>
-      <c r="E187" t="s">
-        <v>382</v>
+        <v>63</v>
+      </c>
+      <c r="F187" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -12302,13 +12404,16 @@
         <v>162</v>
       </c>
       <c r="B188" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="C188" t="s">
+        <v>387</v>
+      </c>
+      <c r="D188" t="s">
+        <v>388</v>
       </c>
       <c r="E188" t="s">
-        <v>449</v>
-      </c>
-      <c r="F188" t="s">
-        <v>445</v>
+        <v>389</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -12316,16 +12421,13 @@
         <v>162</v>
       </c>
       <c r="B189" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C189" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D189" t="s">
-        <v>213</v>
-      </c>
-      <c r="E189" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -12333,16 +12435,16 @@
         <v>162</v>
       </c>
       <c r="B190" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C190" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D190" t="s">
-        <v>211</v>
+        <v>392</v>
       </c>
       <c r="E190" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -12350,7 +12452,7 @@
         <v>162</v>
       </c>
       <c r="B191" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F191" t="s">
         <v>445</v>
@@ -12361,16 +12463,10 @@
         <v>162</v>
       </c>
       <c r="B192" t="s">
-        <v>68</v>
-      </c>
-      <c r="C192" t="s">
-        <v>387</v>
-      </c>
-      <c r="D192" t="s">
-        <v>388</v>
-      </c>
-      <c r="E192" t="s">
-        <v>389</v>
+        <v>66</v>
+      </c>
+      <c r="F192" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -12378,13 +12474,16 @@
         <v>162</v>
       </c>
       <c r="B193" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C193" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="D193" t="s">
-        <v>377</v>
+        <v>432</v>
+      </c>
+      <c r="E193" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -12392,16 +12491,13 @@
         <v>162</v>
       </c>
       <c r="B194" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="C194" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="D194" t="s">
-        <v>392</v>
-      </c>
-      <c r="E194" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -12409,10 +12505,16 @@
         <v>162</v>
       </c>
       <c r="B195" t="s">
-        <v>65</v>
-      </c>
-      <c r="F195" t="s">
-        <v>445</v>
+        <v>71</v>
+      </c>
+      <c r="C195" t="s">
+        <v>395</v>
+      </c>
+      <c r="D195" t="s">
+        <v>396</v>
+      </c>
+      <c r="E195" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -12420,10 +12522,13 @@
         <v>162</v>
       </c>
       <c r="B196" t="s">
-        <v>66</v>
-      </c>
-      <c r="F196" t="s">
-        <v>445</v>
+        <v>31</v>
+      </c>
+      <c r="C196" t="s">
+        <v>363</v>
+      </c>
+      <c r="D196" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -12431,16 +12536,13 @@
         <v>162</v>
       </c>
       <c r="B197" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="C197" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
       <c r="D197" t="s">
-        <v>432</v>
-      </c>
-      <c r="E197" t="s">
-        <v>434</v>
+        <v>364</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -12448,13 +12550,13 @@
         <v>162</v>
       </c>
       <c r="B198" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="C198" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="D198" t="s">
-        <v>436</v>
+        <v>364</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -12462,16 +12564,16 @@
         <v>162</v>
       </c>
       <c r="B199" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C199" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="D199" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="E199" t="s">
-        <v>397</v>
+        <v>293</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -12479,10 +12581,10 @@
         <v>162</v>
       </c>
       <c r="B200" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C200" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D200" t="s">
         <v>364</v>
@@ -12493,10 +12595,10 @@
         <v>162</v>
       </c>
       <c r="B201" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C201" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D201" t="s">
         <v>364</v>
@@ -12507,13 +12609,10 @@
         <v>162</v>
       </c>
       <c r="B202" t="s">
-        <v>33</v>
-      </c>
-      <c r="C202" t="s">
-        <v>366</v>
-      </c>
-      <c r="D202" t="s">
-        <v>364</v>
+        <v>37</v>
+      </c>
+      <c r="E202" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -12521,16 +12620,10 @@
         <v>162</v>
       </c>
       <c r="B203" t="s">
-        <v>34</v>
-      </c>
-      <c r="C203" t="s">
-        <v>367</v>
-      </c>
-      <c r="D203" t="s">
-        <v>364</v>
+        <v>38</v>
       </c>
       <c r="E203" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -12538,13 +12631,10 @@
         <v>162</v>
       </c>
       <c r="B204" t="s">
-        <v>35</v>
-      </c>
-      <c r="C204" t="s">
-        <v>368</v>
-      </c>
-      <c r="D204" t="s">
-        <v>364</v>
+        <v>39</v>
+      </c>
+      <c r="F204" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -12552,10 +12642,10 @@
         <v>162</v>
       </c>
       <c r="B205" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C205" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D205" t="s">
         <v>364</v>
@@ -12566,10 +12656,13 @@
         <v>162</v>
       </c>
       <c r="B206" t="s">
-        <v>37</v>
-      </c>
-      <c r="E206" t="s">
-        <v>371</v>
+        <v>72</v>
+      </c>
+      <c r="C206" t="s">
+        <v>437</v>
+      </c>
+      <c r="D206" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -12577,10 +12670,16 @@
         <v>162</v>
       </c>
       <c r="B207" t="s">
-        <v>38</v>
+        <v>73</v>
+      </c>
+      <c r="C207" t="s">
+        <v>236</v>
+      </c>
+      <c r="D207" t="s">
+        <v>51</v>
       </c>
       <c r="E207" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -12588,10 +12687,16 @@
         <v>162</v>
       </c>
       <c r="B208" t="s">
-        <v>39</v>
-      </c>
-      <c r="F208" t="s">
-        <v>445</v>
+        <v>74</v>
+      </c>
+      <c r="C208" t="s">
+        <v>236</v>
+      </c>
+      <c r="D208" t="s">
+        <v>51</v>
+      </c>
+      <c r="E208" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -12599,13 +12704,16 @@
         <v>162</v>
       </c>
       <c r="B209" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C209" t="s">
-        <v>372</v>
+        <v>236</v>
       </c>
       <c r="D209" t="s">
-        <v>364</v>
+        <v>51</v>
+      </c>
+      <c r="E209" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -12613,13 +12721,7 @@
         <v>162</v>
       </c>
       <c r="B210" t="s">
-        <v>72</v>
-      </c>
-      <c r="C210" t="s">
-        <v>437</v>
-      </c>
-      <c r="D210" t="s">
-        <v>438</v>
+        <v>76</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -12627,16 +12729,16 @@
         <v>162</v>
       </c>
       <c r="B211" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C211" t="s">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="D211" t="s">
-        <v>51</v>
+        <v>398</v>
       </c>
       <c r="E211" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -12644,16 +12746,13 @@
         <v>162</v>
       </c>
       <c r="B212" t="s">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="C212" t="s">
-        <v>236</v>
+        <v>400</v>
       </c>
       <c r="D212" t="s">
-        <v>51</v>
-      </c>
-      <c r="E212" t="s">
-        <v>320</v>
+        <v>401</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -12661,16 +12760,13 @@
         <v>162</v>
       </c>
       <c r="B213" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="C213" t="s">
-        <v>236</v>
+        <v>443</v>
       </c>
       <c r="D213" t="s">
-        <v>51</v>
-      </c>
-      <c r="E213" t="s">
-        <v>321</v>
+        <v>444</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -12678,7 +12774,16 @@
         <v>162</v>
       </c>
       <c r="B214" t="s">
-        <v>76</v>
+        <v>147</v>
+      </c>
+      <c r="C214" t="s">
+        <v>407</v>
+      </c>
+      <c r="D214" t="s">
+        <v>408</v>
+      </c>
+      <c r="E214" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -12686,16 +12791,13 @@
         <v>162</v>
       </c>
       <c r="B215" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="C215" t="s">
-        <v>398</v>
+        <v>471</v>
       </c>
       <c r="D215" t="s">
-        <v>398</v>
-      </c>
-      <c r="E215" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -12703,72 +12805,60 @@
         <v>162</v>
       </c>
       <c r="B216" t="s">
-        <v>323</v>
+        <v>470</v>
       </c>
       <c r="C216" t="s">
-        <v>400</v>
+        <v>472</v>
       </c>
       <c r="D216" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>162</v>
-      </c>
-      <c r="B217" t="s">
-        <v>146</v>
-      </c>
-      <c r="C217" t="s">
-        <v>443</v>
-      </c>
-      <c r="D217" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>162</v>
+      <c r="A218" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="B218" t="s">
-        <v>147</v>
-      </c>
-      <c r="C218" t="s">
-        <v>407</v>
-      </c>
-      <c r="D218" t="s">
-        <v>408</v>
+        <v>50</v>
       </c>
       <c r="E218" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>162</v>
+      <c r="A219" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="B219" t="s">
-        <v>179</v>
-      </c>
-      <c r="C219" t="s">
-        <v>471</v>
-      </c>
-      <c r="D219" t="s">
-        <v>436</v>
+        <v>180</v>
+      </c>
+      <c r="E219" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>162</v>
+      <c r="A220" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="B220" t="s">
-        <v>470</v>
-      </c>
-      <c r="C220" t="s">
-        <v>472</v>
-      </c>
-      <c r="D220" t="s">
-        <v>436</v>
+        <v>181</v>
+      </c>
+      <c r="E220" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B221" t="s">
+        <v>183</v>
+      </c>
+      <c r="C221" t="s">
+        <v>234</v>
+      </c>
+      <c r="D221" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -12776,104 +12866,110 @@
         <v>277</v>
       </c>
       <c r="B222" t="s">
-        <v>50</v>
-      </c>
-      <c r="E222" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B223" t="s">
-        <v>180</v>
-      </c>
-      <c r="E223" t="s">
-        <v>474</v>
+        <v>184</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>277</v>
+      <c r="A224" t="s">
+        <v>185</v>
       </c>
       <c r="B224" t="s">
-        <v>181</v>
-      </c>
-      <c r="E224" t="s">
-        <v>475</v>
+        <v>186</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>277</v>
+      <c r="A225" t="s">
+        <v>185</v>
       </c>
       <c r="B225" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C225" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D225" t="s">
-        <v>206</v>
+        <v>477</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>277</v>
+      <c r="A226" t="s">
+        <v>185</v>
       </c>
       <c r="B226" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+        <v>476</v>
+      </c>
+      <c r="C226" t="s">
+        <v>480</v>
+      </c>
+      <c r="D226" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>185</v>
       </c>
-      <c r="B228" t="s">
-        <v>186</v>
+      <c r="B227" t="s">
+        <v>187</v>
+      </c>
+      <c r="C227" t="s">
+        <v>226</v>
+      </c>
+      <c r="D227" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="B229" t="s">
-        <v>188</v>
-      </c>
-      <c r="C229" t="s">
-        <v>227</v>
-      </c>
-      <c r="D229" t="s">
-        <v>477</v>
+        <v>189</v>
+      </c>
+      <c r="E229" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="B230" t="s">
-        <v>476</v>
-      </c>
-      <c r="C230" t="s">
-        <v>480</v>
-      </c>
-      <c r="D230" t="s">
-        <v>478</v>
+        <v>190</v>
+      </c>
+      <c r="E230" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="B231" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C231" t="s">
-        <v>226</v>
+        <v>483</v>
       </c>
       <c r="D231" t="s">
-        <v>479</v>
+        <v>484</v>
+      </c>
+      <c r="E231" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>276</v>
+      </c>
+      <c r="B232" t="s">
+        <v>192</v>
+      </c>
+      <c r="C232" t="s">
+        <v>481</v>
+      </c>
+      <c r="D232" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -12881,59 +12977,6 @@
         <v>276</v>
       </c>
       <c r="B233" t="s">
-        <v>189</v>
-      </c>
-      <c r="E233" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>276</v>
-      </c>
-      <c r="B234" t="s">
-        <v>190</v>
-      </c>
-      <c r="E234" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>276</v>
-      </c>
-      <c r="B235" t="s">
-        <v>181</v>
-      </c>
-      <c r="C235" t="s">
-        <v>483</v>
-      </c>
-      <c r="D235" t="s">
-        <v>484</v>
-      </c>
-      <c r="E235" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>276</v>
-      </c>
-      <c r="B236" t="s">
-        <v>192</v>
-      </c>
-      <c r="C236" t="s">
-        <v>481</v>
-      </c>
-      <c r="D236" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>276</v>
-      </c>
-      <c r="B237" t="s">
         <v>184</v>
       </c>
     </row>
